--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="255">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,19 +269,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN01-ALTER01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오톡 또는 네이버 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- 카카오톡 또는 네이버 버튼 클릭 -&gt; 카카오톡 또는 네이버 로그인 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 좀 생각…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -319,10 +311,6 @@
   </si>
   <si>
     <t>아이디 찾기 완료 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,10 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>취소버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 취소버튼 생성
 - 클릭시 : 로그인페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +412,6 @@
   <si>
     <t>- 주소검색버튼 생성
 - 클릭시 : 주소검색창 띄움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,14 +467,6 @@
   </si>
   <si>
     <t>- 이메일, 전화번호 입력폼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾기버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -566,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찜 한 매물 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거래 완료된 정보 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,10 +676,6 @@
   <si>
     <t>- 텍스트 폼(이름, 면적, 주소,가격, 층수, 건물유형)
 - 이미지   ……..등등 전부 수정 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -827,6 +787,335 @@
   </si>
   <si>
     <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 지도 링크 생성
+- 지도 링크 클릭 시 : 지도 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 목록 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성(집 내놓기) 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 로그인 버튼 생성
+- 버튼 클릭 시 : 로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 로고 링크 생성
+- 링크 클릭 시 : 메인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 작성 링크 생성
+- 링크 클릭 시 : 작성 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 찜 목록 링크 생성
+-링크 클릭 시 : 마이페이지-&gt;찜 목록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOTER01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01-PRINT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01-PRINT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-PRINT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-REDIRECT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-REDIRECT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 취소버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNCOMP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNCOMP01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNCOMP01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDID01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDID01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDID01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDID01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDIDCOMP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDIDCOMP01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDIDCOMP01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDPW01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDPW01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDPW01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDPW01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01-PRINT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01-PRINT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPLIST01-PRINT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-PRINT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE01-REDIRECTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE01-REDIRECTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 로그인 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 정보(작성에 있는 데이터)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +1236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1038,8 +1327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1114,37 +1409,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1154,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,9 +1506,6 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,9 +1525,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1290,12 +1548,6 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1347,10 +1599,7 @@
     <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,46 +1608,31 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,6 +1641,39 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1425,62 +1692,38 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,6 +1733,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1814,16 +2084,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U74"/>
+  <dimension ref="B3:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="3" customWidth="1"/>
@@ -1861,10 +2131,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="61" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -1877,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>45</v>
@@ -1887,8 +2157,8 @@
       <c r="L4" s="19"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -1909,8 +2179,8 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -1929,67 +2199,73 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="23" t="s">
+        <v>188</v>
+      </c>
       <c r="E9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="E10" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
@@ -1997,27 +2273,27 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="100" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
@@ -2026,17 +2302,19 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="26" t="s">
+        <v>192</v>
+      </c>
       <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="26"/>
@@ -2044,1036 +2322,1221 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="26" t="s">
+        <v>193</v>
+      </c>
       <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="26" t="s">
+        <v>194</v>
+      </c>
       <c r="E14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="G17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="105"/>
+      <c r="C18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B21" s="106"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="106"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+    </row>
+    <row r="25" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="107"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-    </row>
-    <row r="25" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="31"/>
       <c r="K25" s="14"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="84"/>
+      <c r="B26" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>212</v>
+      </c>
       <c r="E26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
+      <c r="F26" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="K26" s="14"/>
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="85"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="85"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="86"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="55" t="s">
+        <v>213</v>
+      </c>
       <c r="E31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="F31" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="B32" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="34"/>
       <c r="L35" s="19"/>
       <c r="U35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="38"/>
+      <c r="B36" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
       <c r="K38" s="14"/>
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
+      <c r="B39" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
     </row>
     <row r="42" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="103"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="94"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="93"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="79"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
     </row>
     <row r="44" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="71"/>
-      <c r="C45" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="51"/>
+      <c r="B45" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>226</v>
+      </c>
       <c r="E45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="99"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="51"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="71"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="H46" s="51" t="s">
+      <c r="I46" s="47"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="99"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="99"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="I46" s="51"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="71"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="71"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="51"/>
-      <c r="J48" s="58" t="s">
-        <v>181</v>
-      </c>
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="71"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="47" t="s">
+        <v>230</v>
+      </c>
       <c r="E49" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51" t="s">
-        <v>175</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="21"/>
     </row>
     <row r="50" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
+      <c r="B50" s="22" t="s">
+        <v>231</v>
+      </c>
       <c r="C50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>232</v>
+      </c>
       <c r="E50" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="23"/>
       <c r="N50" s="21"/>
     </row>
     <row r="51" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="64"/>
-      <c r="C51" s="64" t="s">
+      <c r="B51" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="36"/>
+    </row>
+    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="38" t="s">
+      <c r="G54" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="39" t="s">
+      <c r="G56" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-    </row>
-    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="65"/>
-      <c r="C54" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I54" s="35"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I55" s="35"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="79"/>
-      <c r="C57" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="H58" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="40"/>
-    </row>
-    <row r="59" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="80"/>
-      <c r="C60" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="23" t="s">
+        <v>247</v>
+      </c>
       <c r="E61" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="81"/>
-      <c r="C63" s="81" t="s">
+    <row r="62" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="59"/>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63" s="59"/>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64" s="59"/>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="59"/>
+      <c r="I65" s="57"/>
+    </row>
+    <row r="66" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="G66" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="61"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="61"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="81"/>
-      <c r="C66" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="61"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="61"/>
+      <c r="B67" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="57"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="57"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="57"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="81"/>
-      <c r="C69" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="61"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="57"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="61"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="57"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="57"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="81"/>
-      <c r="C72" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="61"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="61"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="57"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="81"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="57"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="48">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="J24:P24"/>
     <mergeCell ref="J39:Q43"/>
@@ -3090,38 +3553,6 @@
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="D26:D30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B18:C25"/>
-    <mergeCell ref="C26:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,10 +3626,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -3214,10 +3645,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="110"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -3225,10 +3656,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="111"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>

--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\realestate_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="285">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 완료 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,29 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-이메일 인증 버튼 생성
-- 클릭시 : 메일 인증(메일에 있는 링크 열어서 새창에서 인증 // 메일에 랜덤 숫자 출력-&gt;비밀번호 변경 페이지로 돌아와서 숫자 입력해서 인증)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 중복 아닐 시 나중에 설정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(메일에 있는 링크 열어서 새창에서 인증 // 메일에 랜덤 숫자 출력-&gt;비밀번호 변경 페이지로 돌아와서 숫자 입력해서 인증)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체크박스 넣을거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FINDIDCOMP01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FINDIDCOMP01-PRINT01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,6 +1085,160 @@
   </si>
   <si>
     <t>- 정보(작성에 있는 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINDID02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-이메일 인증 버튼 생성
+- 클릭시 : 메일 인증(메일에 있는 링크 열어서 인증 -&gt; 비밀번호 변경 페이지로 이동 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">할거
+- 관리자 권한 어케줄지
+(회원탈퇴, 게시글삭제(홍보성, 광고글), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탈퇴회원 7일 이내 되살리기 가능???????????? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중복 아닐 시 나중에 설정
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 원하는 수만큼(5개) 리스트에 출력, 그 이상은 다음페이지에 출력
+- 페이지네이션 : 5개 까지 숫자 표시, 다음버튼 누르면 다음 숫자 5개 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 리스트 페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원정보 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 게시글번호
+- 아이디
+- 이메일
+- 전화번호
+- 주소
+- 가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아이디
+- 이메일
+- 전화번호
+- 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 내정보 출력
+- 아이디는 변경 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 수정버튼 생성
+- 이메일, 전화번호, 주소 수정 가능
+- 페이지 이동 하지 않고, 수정을 한 뒤 수정버튼 클릭시 : 바로 수정 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비밀번호 변경 버튼 생성
+- 버튼 클릭시 : 비밀번호 변경 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원 탈퇴 버튼 생성
+- 버튼 클릭 시 : 회원탈퇴 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비밀번호 입력하고-&gt; 탈퇴버튼 누르면 탈퇴되게??????????-&gt;완료되면 알러트 뜨게???????????-&gt; 메인페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,8 +1358,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1464,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1418,7 +1555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,14 +1739,110 @@
     <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1674,57 +1907,6 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,32 +1916,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2084,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U75"/>
+  <dimension ref="B3:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2130,11 +2294,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="2:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2147,7 +2311,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>45</v>
@@ -2155,10 +2319,16 @@
       <c r="I4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
+      <c r="M4" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2177,10 +2347,13 @@
       <c r="I5" s="24"/>
       <c r="K5" s="14"/>
       <c r="L5" s="19"/>
+      <c r="M5" s="71" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -2199,28 +2372,28 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>43</v>
@@ -2235,28 +2408,28 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>119</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>120</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>43</v>
@@ -2273,14 +2446,14 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="83" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
@@ -2293,7 +2466,7 @@
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
@@ -2302,19 +2475,19 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>74</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="26"/>
@@ -2322,344 +2495,344 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>79</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="105"/>
-      <c r="C18" s="108" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="81" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
     </row>
     <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="108"/>
+      <c r="B22" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="81"/>
       <c r="D22" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
-      <c r="C23" s="108"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>92</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>93</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
     </row>
     <row r="24" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="J24" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
     </row>
     <row r="25" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="109"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="31"/>
       <c r="K25" s="14"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>212</v>
+      <c r="B26" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>209</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="F26" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
       <c r="K26" s="14"/>
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="86"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="86"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="87"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="55" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="56" t="s">
         <v>97</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>98</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -2667,75 +2840,75 @@
       <c r="L31" s="19"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="95" t="s">
+      <c r="B32" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="111" t="s">
+      <c r="E32" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>102</v>
       </c>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
     <row r="34" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
@@ -2745,191 +2918,191 @@
       </c>
     </row>
     <row r="36" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>67</v>
+      <c r="B36" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>105</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="36"/>
     </row>
     <row r="37" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="72" t="s">
-        <v>220</v>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="104" t="s">
+        <v>216</v>
       </c>
       <c r="E37" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+      <c r="F37" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="73"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
       <c r="K38" s="14"/>
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="69" t="s">
-        <v>65</v>
+      <c r="B39" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>252</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E39" s="49" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>109</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
+      <c r="J39" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="99"/>
+      <c r="Q39" s="99"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="80" t="s">
-        <v>223</v>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="112" t="s">
+        <v>219</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
+      <c r="F40" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="113"/>
       <c r="E41" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="99"/>
+      <c r="Q41" s="99"/>
     </row>
     <row r="42" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="82"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
+      <c r="O43" s="99"/>
+      <c r="P43" s="99"/>
+      <c r="Q43" s="99"/>
     </row>
     <row r="44" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
@@ -2943,601 +3116,727 @@
       <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="96" t="s">
-        <v>68</v>
+      <c r="B45" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I45" s="47"/>
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="47" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="48" t="s">
-        <v>164</v>
-      </c>
       <c r="H46" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I46" s="47"/>
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="99"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="47" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H47" s="47"/>
       <c r="I47" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="77"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" s="47" t="s">
         <v>160</v>
-      </c>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="99"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>161</v>
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="99"/>
-      <c r="C49" s="98"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="47" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H49" s="47"/>
       <c r="I49" s="47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="21"/>
     </row>
     <row r="50" spans="2:14" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="23"/>
       <c r="N50" s="21"/>
     </row>
     <row r="51" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>121</v>
+      <c r="B51" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F51" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" s="36" t="s">
+    </row>
+    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="36" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>125</v>
-      </c>
       <c r="G52" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="36"/>
     </row>
     <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="C54" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="34" t="s">
+      <c r="C57" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="I54" s="34"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="34" t="s">
+      <c r="E57" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E55" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="34"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="38" t="s">
+      <c r="E58" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>146</v>
-      </c>
       <c r="G58" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H58" s="40"/>
       <c r="I58" s="38"/>
     </row>
     <row r="59" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E59" s="49" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="93" t="s">
-        <v>144</v>
+      <c r="B60" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>143</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F60" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F61" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>143</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B62" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E62" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="57"/>
-    </row>
-    <row r="63" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E63" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63" s="57" t="s">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="2:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="B63" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="H63" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63" s="69"/>
+    </row>
+    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="70"/>
+      <c r="I64" s="69"/>
+    </row>
+    <row r="65" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B65" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="H65" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="I65" s="69"/>
+    </row>
+    <row r="66" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="E66" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G66" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66" s="70"/>
+      <c r="I66" s="69"/>
+    </row>
+    <row r="67" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="70" t="s">
+        <v>276</v>
+      </c>
+      <c r="H67" s="70"/>
+      <c r="I67" s="69"/>
+    </row>
+    <row r="68" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E68" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" s="70"/>
+      <c r="I68" s="69"/>
+    </row>
+    <row r="69" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" s="69"/>
+      <c r="G69" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="H69" s="70"/>
+      <c r="I69" s="69"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="69"/>
+    </row>
+    <row r="71" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B71" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="G63" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="57"/>
-    </row>
-    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B64" s="91"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="57"/>
-    </row>
-    <row r="66" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="G66" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="57"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="57"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" s="57"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="57"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="91"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="59"/>
       <c r="H71" s="59"/>
       <c r="I71" s="57"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="57"/>
+    <row r="72" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="59"/>
       <c r="I72" s="57"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="59"/>
+    <row r="73" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>177</v>
+      </c>
       <c r="H73" s="59"/>
       <c r="I73" s="57"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="59"/>
+    <row r="74" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="59" t="s">
+        <v>173</v>
+      </c>
       <c r="H74" s="59"/>
       <c r="I74" s="57"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="59"/>
+    <row r="75" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
     </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="57"/>
+      <c r="E76" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="57"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="57"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="57"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="57"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="57"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="86"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="57"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="57"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="86"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="57"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="57"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="86"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="48">
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B26:B31"/>
+  <mergeCells count="53">
+    <mergeCell ref="M4:P4"/>
     <mergeCell ref="J24:P24"/>
     <mergeCell ref="J39:Q43"/>
     <mergeCell ref="B39:B44"/>
@@ -3553,6 +3852,43 @@
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="F37:F38"/>
     <mergeCell ref="D26:D30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3626,10 +3962,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -3645,10 +3981,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -3656,10 +3992,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>

--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="320">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 텍스트 박스로 검색 : 지역 또는 지하철역만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 지역
 -지하철역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +311,6 @@
   </si>
   <si>
     <t>찜목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +621,6 @@
   </si>
   <si>
     <t>- 상세페이지와 동일한 폼에 거래 완료된 매물만 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1241,12 +1229,172 @@
     <t>- 비밀번호 입력하고-&gt; 탈퇴버튼 누르면 탈퇴되게??????????-&gt;완료되면 알러트 뜨게???????????-&gt; 메인페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>- 텍스트 박스로 검색 : 지역(구/ 도로명주소) 또는 지하철역만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아이디, 비번 빈칸인지 체크
+- 빈칸일시 : 알러트?????????? 경고문구?????????????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 삭제버튼 생성
+- 버튼 클릭시 : 회원 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 색깔 다시 봐야할거!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차때 할 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 정보 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 정보 수정 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 문의하기 버튼 생성
+- 클릭 시 : 문의하기 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 간단설명 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상세페이지에 있는 간단 설명 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 내용 입력 폼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 문의 내용 작성할 수 있는 입력폼 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 보내기 버튼 생성
+- 클릭 시 : DB에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 취소 버튼 생성
+- 클릭시 : 문의 하려던 매물의 상세페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 로그인시 쪽지 링크 이미지 생성
+- 클릭시 : 쪽지 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 구매자에게 받은 쪽지 리스트로 출력
+- 클릭시 : 쪽지 상세페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 상세페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 상세 내용 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 매물의 한줄평 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 쪽지 상세 내용 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 해당 매물의 한줄평 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답장하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 문의, 답장하기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 답장하기 버튼 생성
+- 클릭시 : 거래 문의, 답장 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,15 +1499,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1555,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,9 +1857,6 @@
     <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1711,15 +1865,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1772,56 +1917,59 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1841,88 +1989,118 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2248,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U84"/>
+  <dimension ref="B3:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2295,10 +2473,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="95" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2311,7 +2489,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>45</v>
@@ -2319,16 +2497,16 @@
       <c r="I4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="M4" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2347,13 +2525,13 @@
       <c r="I5" s="24"/>
       <c r="K5" s="14"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="71" t="s">
-        <v>261</v>
+      <c r="M5" s="67" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -2364,81 +2542,84 @@
         <v>52</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="K6" s="126" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="23"/>
@@ -2446,27 +2627,27 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
@@ -2475,19 +2656,19 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="26"/>
@@ -2495,1400 +2676,1606 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+    <row r="18" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="111"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="107" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" s="41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="31" t="s">
-        <v>205</v>
+    <row r="20" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="58"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="41" t="s">
-        <v>204</v>
+      <c r="B21" s="58"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
     </row>
     <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="31" t="s">
-        <v>199</v>
+      <c r="B22" s="58"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="41" t="s">
-        <v>206</v>
+      <c r="B23" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
     </row>
-    <row r="24" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="81"/>
+    <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="58"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
+      <c r="F24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
+      <c r="F25" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+    </row>
+    <row r="26" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="59"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="31"/>
       <c r="K26" s="14"/>
       <c r="L26" s="19"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="90"/>
+      <c r="B27" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>206</v>
+      </c>
       <c r="E27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="F27" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="90"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="90"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="91"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="55" t="s">
-        <v>210</v>
-      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
+    <row r="32" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+      <c r="B33" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>43</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
     <row r="35" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="34"/>
+      <c r="L36" s="19"/>
+      <c r="U36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="E35" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="34"/>
-      <c r="L35" s="19"/>
-      <c r="U35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="78" t="s">
+      <c r="C40" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="H41" s="119"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="120"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+    </row>
+    <row r="43" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="120"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="122"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+    </row>
+    <row r="45" spans="2:21" ht="54" x14ac:dyDescent="0.3">
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="101" t="s">
+      <c r="D46" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="124"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="106"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="124"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="106"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="106"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="124"/>
+      <c r="J49" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="106"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="20"/>
+      <c r="N50" s="21"/>
+    </row>
+    <row r="51" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B51" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="23"/>
+      <c r="N51" s="21"/>
+    </row>
+    <row r="52" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="36"/>
+    </row>
+    <row r="54" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="127"/>
+      <c r="C59" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+    </row>
+    <row r="61" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="62" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+    </row>
+    <row r="63" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="23"/>
+    </row>
+    <row r="69" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B69" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="65"/>
+    </row>
+    <row r="70" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H70" s="66"/>
+      <c r="I70" s="65"/>
+    </row>
+    <row r="71" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" s="66"/>
+      <c r="I71" s="65"/>
+    </row>
+    <row r="72" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B72" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="98" t="s">
-        <v>262</v>
-      </c>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="112" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="106" t="s">
-        <v>254</v>
-      </c>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-    </row>
-    <row r="42" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="99"/>
-      <c r="Q43" s="99"/>
-    </row>
-    <row r="44" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="44" t="s">
+      <c r="D72" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="I72" s="65"/>
+    </row>
+    <row r="73" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E73" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73" s="66"/>
+      <c r="I73" s="65"/>
+    </row>
+    <row r="74" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="H74" s="66"/>
+      <c r="I74" s="65"/>
+    </row>
+    <row r="75" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B75" s="99"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75" s="66"/>
+      <c r="I75" s="65"/>
+    </row>
+    <row r="76" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B76" s="98"/>
+      <c r="C76" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="65"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" s="66"/>
+      <c r="I76" s="65"/>
+    </row>
+    <row r="77" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="G77" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H77" s="66"/>
+      <c r="I77" s="65"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="98"/>
+      <c r="C78" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" s="65"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="H78" s="66"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" s="66"/>
+      <c r="I79" s="65"/>
+    </row>
+    <row r="80" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="H80" s="66"/>
+      <c r="I80" s="65"/>
+    </row>
+    <row r="81" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B81" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="65"/>
+      <c r="E81" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="65"/>
+      <c r="G81" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81" s="66"/>
+      <c r="I81" s="65"/>
+    </row>
+    <row r="82" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I45" s="47"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="77"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H46" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="47"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="77"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="77"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="48" t="s">
+      <c r="D82" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="H48" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="54" t="s">
+      <c r="G82" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="55"/>
+      <c r="I82" s="53"/>
+    </row>
+    <row r="83" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="55"/>
+      <c r="I83" s="53"/>
+    </row>
+    <row r="84" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="H84" s="55"/>
+      <c r="I84" s="53"/>
+    </row>
+    <row r="85" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="M48" s="20"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="77"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21"/>
-    </row>
-    <row r="50" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="23"/>
-      <c r="N50" s="21"/>
-    </row>
-    <row r="51" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36"/>
-    </row>
-    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="I54" s="34"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="34"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="38"/>
-    </row>
-    <row r="59" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H60" s="24"/>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="23"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="2:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="B63" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="120" t="s">
-        <v>253</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F63" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="G63" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="H63" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="I63" s="69"/>
-    </row>
-    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="E64" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F64" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="70"/>
-      <c r="I64" s="69"/>
-    </row>
-    <row r="65" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B65" s="120" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="D65" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F65" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="G65" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="H65" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="I65" s="69"/>
-    </row>
-    <row r="66" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B66" s="122"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="69" t="s">
-        <v>280</v>
-      </c>
-      <c r="E66" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F66" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="G66" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="H66" s="70"/>
-      <c r="I66" s="69"/>
-    </row>
-    <row r="67" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="E67" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F67" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="G67" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="H67" s="70"/>
-      <c r="I67" s="69"/>
-    </row>
-    <row r="68" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="E68" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F68" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="G68" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="H68" s="70"/>
-      <c r="I68" s="69"/>
-    </row>
-    <row r="69" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="C69" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="H69" s="70"/>
-      <c r="I69" s="69"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="69"/>
-    </row>
-    <row r="71" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="86" t="s">
+      <c r="G85" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="F71" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="G71" s="59" t="s">
+      <c r="H85" s="55"/>
+      <c r="I85" s="53"/>
+    </row>
+    <row r="86" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+    </row>
+    <row r="87" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B87" s="69"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="H71" s="59"/>
-      <c r="I71" s="57"/>
-    </row>
-    <row r="72" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="E72" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F72" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="G72" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="H72" s="59"/>
-      <c r="I72" s="57"/>
-    </row>
-    <row r="73" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="H73" s="59"/>
-      <c r="I73" s="57"/>
-    </row>
-    <row r="74" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B74" s="86"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="E74" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F74" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="H74" s="59"/>
-      <c r="I74" s="57"/>
-    </row>
-    <row r="75" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="E75" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="G75" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="86" t="s">
+      <c r="D88" s="53"/>
+      <c r="E88" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="57"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="57"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="86"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F78" s="57"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="57"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="57"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="57"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="57"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="57"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="86"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="53"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="53"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="53"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="53"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="53"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="53"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="53">
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J39:Q43"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
+  <mergeCells count="59">
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B78:B80"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J40:Q44"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="H41:H44"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D27:D31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3962,10 +4349,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -3981,10 +4368,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -3992,10 +4379,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="119"/>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>

--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -13,9 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="요구명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="일정관리표" sheetId="2" r:id="rId2"/>
-    <sheet name="작업 분할" sheetId="3" r:id="rId3"/>
+    <sheet name="유효성검사" sheetId="4" r:id="rId2"/>
+    <sheet name="일정관리표" sheetId="2" r:id="rId3"/>
+    <sheet name="작업 분할" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구명세서!$F$39:$G$43</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="363">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 찾기 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +307,6 @@
   </si>
   <si>
     <t>지도 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,14 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력폼 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,14 +474,6 @@
   </si>
   <si>
     <t>- 이메일 작성 폼 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 아닐 시 나중에 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매물 작성(방내놓기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 지도, 메인페이지에서 찜한 매물 출력
 - 클릭시 : 상세페이지로이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 매물 작성 페이지에서 입력한 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 매물 작성 시 주소 바탕으로 지도에서 위치 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 체크박스란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 매물 정보(유형, 가격, 층수, 면적, 이미지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,14 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 이메일 인증 버튼 생성
-- 클릭시 : 이메일 인증
-- 중복체크
-              중복시 : "이미 가입된 이메일입니다." 알러트 띄우기
-              중복아닐시 : "인증되었습니다." 알러트 띄우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-문구출력 : '회원가입이 완료되었습니다'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,10 +700,6 @@
   </si>
   <si>
     <t>체크박스 넣을거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 체크박스 선택란 출력으로 원하는 매물 검색 가능한란 출력(건물유형,거래유형, 가격, 층수, 주차가능 여부, 반려동물 가능 여부, 엘리베이터 유무, 옵션(에어컨, 전자레인지, 냉장고, 세탁기, 침대, 인덕션)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -868,42 +824,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIGNUP01-REDIRECT02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIGNCOMP01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIGNUP01-EXECUTE01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01-EXECUTE02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01-EXECUTE03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01-REDIRECT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01-EXECUTE04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNUP01-EXECUTE05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIGNUP01-PRINT01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,14 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIKE01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKE01-PRINT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,15 +1001,6 @@
   </si>
   <si>
     <t>관리자 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-이메일 인증 버튼 생성
-- 클릭시 : 메일 인증(메일에 있는 링크 열어서 인증 -&gt; 비밀번호 변경 페이지로 이동 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1116,15 +1023,6 @@
     <t xml:space="preserve">할거
 - 관리자 권한 어케줄지
 (회원탈퇴, 게시글삭제(홍보성, 광고글), </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탈퇴회원 7일 이내 되살리기 가능???????????? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 중복 아닐 시 나중에 설정
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1226,10 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 비밀번호 입력하고-&gt; 탈퇴버튼 누르면 탈퇴되게??????????-&gt;완료되면 알러트 뜨게???????????-&gt; 메인페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 텍스트 박스로 검색 : 지역(구/ 도로명주소) 또는 지하철역만</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1239,11 +1133,6 @@
   </si>
   <si>
     <t>LOGIN01-EXECUTE02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 아이디, 비번 빈칸인지 체크
-- 빈칸일시 : 알러트?????????? 경고문구?????????????</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1387,6 +1276,312 @@
   <si>
     <t>- 답장하기 버튼 생성
 - 클릭시 : 거래 문의, 답장 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 아이디, 비번 빈칸인지 체크
+- 빈칸일시 : 경고문구 한글로 변경해서 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이메일 인증 버튼 생성
+- 클릭시 : 이메일 인증
+- 중복체크
+              중복시 : 유효성 체크 -&gt; "이미 가입된 이메일입니다." 경고문구 출력
+              중복아닐시 : 해당 이메일로 인증 링크 보내짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 이메일 전송 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-비밀번호 변경 이메일 전송 버튼 생성
+- 클릭시 : 메일 인증(메일에 있는 링크 열어서 인증 -&gt; 이메일로 온 링크 클릭시 비밀번호 변경 페이지로 이동 )
+- 없는 이메일 입력시 : 경고문구 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공인중개사 회원권한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개서 라이선스 입력해서 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입처음 페이지 들어가면 두개로 나누기 
+-&gt;일반회원 로그인, 사업자 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 작성(방내놓기)/ 공인중개사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인회원, 사업자 회원 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 개인 회원, 사업자 회원 버튼 출력
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인회원 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자 회원 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사업자 회원 버튼 출력
+- 버튼 클릭 시 : 사업자 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개인회원 버튼 출력
+- 버튼 클릭시 : 개인 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  회원 마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매완료 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-EXECUTE04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-EXECUTE03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-EXECUTE05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-EXECUTE06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 라이선스 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공인중개사 라이선스 적는 폼 충력
+- DB에 그 라이선스 번호가 존재하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 체크박스 선택란 출력으로 원하는 매물 검색 가능한란 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 체크박스란 (건물유형,거래유형, 가격, 층수, 주차가능 여부, 반려동물 가능 여부, 엘리베이터 유무, 옵션(에어컨, 전자레인지, 냉장고, 세탁기, 침대, 인덕션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- DB에서 거래 완료된 매물 가격 출력 후 평균 내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>－조회수　출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 매물 작성 페이지에서 입력한 정보 출력
+- 가격, 주소, 유혀8ㅇ, 면적, 층수 , 매물번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중개인 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 중개인 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽은 쪽지 흐릿하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 마이페이지 쪽지 답장 받으면 
+사업자 별점 매길수 있게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중개인 정보 페이지 이동 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사업자회원으로 로그인 했을 때 상세페이지에 구매 완료 버튼 생성
+- 구매 완료 버튼 클릭 시 db플래그 변경 및 화면 회색으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 상세 정보 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공인중개사 상세 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 상세 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 공인중개사 상호명
+- 대표자명
+- 전화번호
+- 사업자 등록번호
+- 홈페이지 가입일
+- 주소
+- 거래 완료된 방
+- 내가 올린 방 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 상호명 링크 생성
+- 링크 클릭시 : 공인중개사 정보 페이지로 이동(새창으로 띄움)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점 매기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 판매자에게 문의한 사람만 별점 매길수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비밀번호 입력하고-&gt; 탈퇴버튼 누르면 탈퇴되게
+완료되면 모달창 뜨게 : 확인, 취소 버튼
+확인 버튼 클릭시 : 탈퇴 됨-&gt; 메인페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-PRINT04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01-PRINT05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLERINFO01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLERINFO01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELLERINFO01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP02-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGNUP01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 목록 토글 메뉴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 찜 목록 토글 메뉴 버튼 생성
+- 메뉴 클릭시 : 찜 목록 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-PRINT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1524,7 +1719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,12 +1806,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1624,6 +1813,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4D2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFF282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,9 +2025,6 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1866,47 +2076,323 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1914,97 +2400,10 @@
     <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2013,95 +2412,11 @@
     <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,11 +2426,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE4D2F2"/>
+      <color rgb="FFCFF282"/>
+      <color rgb="FFFCE4D6"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF2549FF"/>
       <color rgb="FFF3EBF9"/>
-      <color rgb="FFE4D2F2"/>
-      <color rgb="FFCFF282"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2426,10 +2742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U101"/>
+  <dimension ref="A3:U114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2473,10 +2789,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="69" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2489,7 +2805,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>45</v>
@@ -2497,16 +2813,16 @@
       <c r="I4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="M4" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2525,13 +2841,12 @@
       <c r="I5" s="24"/>
       <c r="K5" s="14"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="67" t="s">
-        <v>258</v>
-      </c>
+      <c r="M5" s="56"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -2542,39 +2857,55 @@
         <v>52</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="126" t="s">
-        <v>289</v>
-      </c>
+      <c r="K6" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="O7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>43</v>
@@ -2587,30 +2918,43 @@
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="2:18" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="O8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q8" s="139" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="23"/>
+      <c r="P9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>43</v>
@@ -2627,14 +2971,14 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="130" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
@@ -2647,7 +2991,7 @@
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
@@ -2656,19 +3000,19 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="26" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="26"/>
@@ -2676,1606 +3020,2016 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="26" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="26" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="26" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="26" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="26" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="111"/>
-      <c r="C18" s="110"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="27"/>
+        <v>258</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="115" t="s">
-        <v>285</v>
+        <v>257</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="41" t="s">
+    <row r="19" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="160" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="159" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="91"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B21" s="161"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="50"/>
+      <c r="C22" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="51"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="51"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="41" t="s">
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="51"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="2:16" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27" s="51"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="G23" s="42" t="s">
+      <c r="G27" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="41" t="s">
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="2:16" ht="99" x14ac:dyDescent="0.3">
+      <c r="B28" s="51"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+    </row>
+    <row r="29" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="52"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-    </row>
-    <row r="26" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="59"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="82"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="84"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
+    <row r="32" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="40"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+    <row r="33" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="40"/>
       <c r="K33" s="14"/>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="35" t="s">
+    <row r="34" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="40"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="40"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="40"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="34"/>
-      <c r="L36" s="19"/>
-      <c r="U36" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="C37" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
+      <c r="G38" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="40"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="88"/>
+      <c r="I39" s="82"/>
       <c r="K39" s="14"/>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="76" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="83"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="83"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="83"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="84"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="111"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="111"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="74"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+    </row>
+    <row r="52" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="2:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="33"/>
+      <c r="L53" s="19"/>
+      <c r="U53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="36"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="102"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B57" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="G58" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="H58" s="103"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="107"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+    </row>
+    <row r="60" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="107"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="108"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+    </row>
+    <row r="62" spans="2:21" ht="54" x14ac:dyDescent="0.3">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B63" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I63" s="46"/>
+      <c r="M63" s="20"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B64" s="128"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="46"/>
+      <c r="M64" s="20"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="128"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" spans="1:14" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B66" s="128"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="I66" s="46"/>
+      <c r="J66" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="M66" s="20"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="128"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M67" s="20"/>
+      <c r="N67" s="21"/>
+    </row>
+    <row r="68" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H69" s="36"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="141" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="142" t="s">
+        <v>329</v>
+      </c>
+      <c r="H71" s="142" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" s="141"/>
+    </row>
+    <row r="72" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="142" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="I72" s="141"/>
+    </row>
+    <row r="73" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="141" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="141" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" s="141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="141" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" s="140" t="s">
+        <v>320</v>
+      </c>
+      <c r="F74" s="141" t="s">
+        <v>267</v>
+      </c>
+      <c r="G74" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="141"/>
+      <c r="I74" s="141"/>
+    </row>
+    <row r="75" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="141" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="141" t="s">
+        <v>327</v>
+      </c>
+      <c r="G75" s="142" t="s">
+        <v>328</v>
+      </c>
+      <c r="H75" s="141" t="s">
+        <v>328</v>
+      </c>
+      <c r="I75" s="141"/>
+    </row>
+    <row r="76" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="141" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="141" t="s">
+        <v>330</v>
+      </c>
+      <c r="G76" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="H76" s="141"/>
+      <c r="I76" s="141"/>
+    </row>
+    <row r="77" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="141" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="G77" s="142" t="s">
+        <v>341</v>
+      </c>
+      <c r="H77" s="141"/>
+      <c r="I77" s="141"/>
+    </row>
+    <row r="78" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="141" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" s="140" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="141" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78" s="142" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" s="141"/>
+      <c r="I78" s="141"/>
+    </row>
+    <row r="79" spans="1:14" s="158" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="160" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" s="156" t="s">
+        <v>350</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="F79" s="156" t="s">
+        <v>339</v>
+      </c>
+      <c r="G79" s="157" t="s">
+        <v>338</v>
+      </c>
+      <c r="H79" s="157" t="s">
+        <v>340</v>
+      </c>
+      <c r="I79" s="156"/>
+    </row>
+    <row r="80" spans="1:14" s="158" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="161"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" s="157" t="s">
+        <v>344</v>
+      </c>
+      <c r="H80" s="157"/>
+      <c r="I80" s="156"/>
+    </row>
+    <row r="81" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="E81" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="121"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="37"/>
+    </row>
+    <row r="83" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H84" s="24"/>
+      <c r="I84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="114"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="77"/>
+      <c r="I85" s="69"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="70"/>
+    </row>
+    <row r="87" spans="1:14" ht="99" x14ac:dyDescent="0.3">
+      <c r="B87" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="H87" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I87" s="54"/>
+    </row>
+    <row r="88" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="55"/>
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B89" s="124"/>
+      <c r="C89" s="124"/>
+      <c r="D89" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G89" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="H89" s="55"/>
+      <c r="I89" s="54"/>
+    </row>
+    <row r="90" spans="1:14" s="158" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="160" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="160" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" s="156" t="s">
+        <v>241</v>
+      </c>
+      <c r="G90" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="H90" s="157" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90" s="156"/>
+    </row>
+    <row r="91" spans="1:14" s="158" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91" s="156" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="H91" s="157"/>
+      <c r="I91" s="156"/>
+    </row>
+    <row r="92" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="156" t="s">
+        <v>253</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F92" s="156" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="H92" s="157"/>
+      <c r="I92" s="156"/>
+    </row>
+    <row r="93" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="161"/>
+      <c r="D93" s="156" t="s">
+        <v>254</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="119" t="s">
-        <v>251</v>
-      </c>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="120"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-    </row>
-    <row r="43" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="120"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="122"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-    </row>
-    <row r="45" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="43" t="s">
+      <c r="G93" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="H93" s="157"/>
+      <c r="I93" s="156"/>
+    </row>
+    <row r="94" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="160"/>
+      <c r="D94" s="156" t="s">
+        <v>362</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F94" s="156" t="s">
+        <v>360</v>
+      </c>
+      <c r="G94" s="157" t="s">
+        <v>361</v>
+      </c>
+      <c r="H94" s="157"/>
+      <c r="I94" s="156"/>
+    </row>
+    <row r="95" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B95" s="64"/>
+      <c r="C95" s="161"/>
+      <c r="D95" s="156"/>
+      <c r="E95" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G95" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" s="157"/>
+      <c r="I95" s="156"/>
+      <c r="N95" s="163"/>
+    </row>
+    <row r="96" spans="1:14" s="143" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="140" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96" s="141"/>
+      <c r="G96" s="142" t="s">
+        <v>345</v>
+      </c>
+      <c r="H96" s="142"/>
+      <c r="I96" s="141"/>
+    </row>
+    <row r="97" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="151" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="125" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="124"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="106"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="124" t="s">
+      <c r="H97" s="154"/>
+      <c r="I97" s="152"/>
+    </row>
+    <row r="98" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="151"/>
+      <c r="D98" s="152" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" s="152" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" s="154" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98" s="154"/>
+      <c r="I98" s="152"/>
+    </row>
+    <row r="99" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="151"/>
+      <c r="C99" s="151"/>
+      <c r="D99" s="152" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="H99" s="154"/>
+      <c r="I99" s="152"/>
+    </row>
+    <row r="100" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="151"/>
+      <c r="C100" s="151"/>
+      <c r="D100" s="152" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="154" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="125" t="s">
+      <c r="H100" s="154"/>
+      <c r="I100" s="152"/>
+    </row>
+    <row r="101" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="151"/>
+      <c r="C101" s="151"/>
+      <c r="D101" s="152" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="124"/>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="106"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48" s="20"/>
-    </row>
-    <row r="49" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="124" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="125" t="s">
+      <c r="G101" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="124"/>
-      <c r="J49" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="M49" s="20"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124" t="s">
-        <v>161</v>
-      </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-    </row>
-    <row r="51" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B51" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="23"/>
-      <c r="N51" s="21"/>
-    </row>
-    <row r="52" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B52" s="93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="36"/>
-    </row>
-    <row r="54" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I55" s="34"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="34"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="G58" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="127"/>
-      <c r="C59" s="127" t="s">
-        <v>318</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="G59" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-    </row>
-    <row r="61" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="G61" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-    </row>
-    <row r="62" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-    </row>
-    <row r="63" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B63" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="38" t="s">
+      <c r="H101" s="152"/>
+      <c r="I101" s="152"/>
+    </row>
+    <row r="102" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="151" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="152"/>
+      <c r="E102" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" s="152"/>
+      <c r="G102" s="154"/>
+      <c r="H102" s="154"/>
+      <c r="I102" s="152"/>
+    </row>
+    <row r="103" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="151"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F103" s="152"/>
+      <c r="G103" s="154"/>
+      <c r="H103" s="154"/>
+      <c r="I103" s="152"/>
+    </row>
+    <row r="104" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="151"/>
+      <c r="C104" s="151"/>
+      <c r="D104" s="152"/>
+      <c r="E104" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F104" s="152"/>
+      <c r="G104" s="154"/>
+      <c r="H104" s="152"/>
+      <c r="I104" s="152"/>
+    </row>
+    <row r="105" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="147"/>
+      <c r="C105" s="147" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="136"/>
+      <c r="E105" s="137"/>
+      <c r="F105" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="G105" s="138" t="s">
+        <v>284</v>
+      </c>
+      <c r="H105" s="138"/>
+      <c r="I105" s="136"/>
+    </row>
+    <row r="106" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="150"/>
+      <c r="C106" s="150"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="137"/>
+      <c r="F106" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="G106" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="E64" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="38"/>
-    </row>
-    <row r="65" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B69" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" s="64" t="s">
+      <c r="H106" s="138"/>
+      <c r="I106" s="136"/>
+    </row>
+    <row r="107" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="147"/>
+      <c r="C107" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="136"/>
+      <c r="E107" s="137"/>
+      <c r="F107" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="H107" s="138"/>
+      <c r="I107" s="136"/>
+    </row>
+    <row r="108" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="149"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="137"/>
+      <c r="F108" s="136" t="s">
+        <v>287</v>
+      </c>
+      <c r="G108" s="138" t="s">
+        <v>289</v>
+      </c>
+      <c r="H108" s="138"/>
+      <c r="I108" s="136"/>
+    </row>
+    <row r="109" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="150"/>
+      <c r="C109" s="150"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="G109" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="H109" s="138"/>
+      <c r="I109" s="136"/>
+    </row>
+    <row r="110" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="147"/>
+      <c r="C110" s="147" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" s="136"/>
+      <c r="E110" s="137"/>
+      <c r="F110" s="136" t="s">
+        <v>271</v>
+      </c>
+      <c r="G110" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="H110" s="136"/>
+      <c r="I110" s="136"/>
+    </row>
+    <row r="111" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="149"/>
+      <c r="C111" s="149"/>
+      <c r="D111" s="136"/>
+      <c r="E111" s="137"/>
+      <c r="F111" s="136" t="s">
+        <v>273</v>
+      </c>
+      <c r="G111" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="H111" s="136"/>
+      <c r="I111" s="136"/>
+    </row>
+    <row r="112" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="149"/>
+      <c r="C112" s="149"/>
+      <c r="D112" s="136"/>
+      <c r="E112" s="137"/>
+      <c r="F112" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="G112" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="H112" s="136"/>
+      <c r="I112" s="136"/>
+    </row>
+    <row r="113" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="150"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="136"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="136" t="s">
+        <v>277</v>
+      </c>
+      <c r="G113" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="H113" s="136"/>
+      <c r="I113" s="136"/>
+    </row>
+    <row r="114" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="137"/>
+      <c r="C114" s="137"/>
+      <c r="D114" s="136"/>
+      <c r="E114" s="137"/>
+      <c r="F114" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="G114" s="138" t="s">
         <v>280</v>
       </c>
-      <c r="F69" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="G69" s="66" t="s">
-        <v>263</v>
-      </c>
-      <c r="H69" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="I69" s="65"/>
-    </row>
-    <row r="70" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="102"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="E70" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F70" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="G70" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="H70" s="66"/>
-      <c r="I70" s="65"/>
-    </row>
-    <row r="71" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="64"/>
-      <c r="F71" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="G71" s="66" t="s">
-        <v>287</v>
-      </c>
-      <c r="H71" s="66"/>
-      <c r="I71" s="65"/>
-    </row>
-    <row r="72" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B72" s="98" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="98" t="s">
-        <v>252</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F72" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="G72" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="I72" s="65"/>
-    </row>
-    <row r="73" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B73" s="102"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F73" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="G73" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H73" s="66"/>
-      <c r="I73" s="65"/>
-    </row>
-    <row r="74" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B74" s="102"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="G74" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="H74" s="66"/>
-      <c r="I74" s="65"/>
-    </row>
-    <row r="75" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="E75" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F75" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="G75" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="65"/>
-    </row>
-    <row r="76" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B76" s="98"/>
-      <c r="C76" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="G76" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="H76" s="66"/>
-      <c r="I76" s="65"/>
-    </row>
-    <row r="77" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="G77" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="H77" s="66"/>
-      <c r="I77" s="65"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="98"/>
-      <c r="C78" s="98" t="s">
-        <v>312</v>
-      </c>
-      <c r="D78" s="65"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="G78" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="H78" s="66"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="102"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="G79" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" s="66"/>
-      <c r="I79" s="65"/>
-    </row>
-    <row r="80" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="G80" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="H80" s="66"/>
-      <c r="I80" s="65"/>
-    </row>
-    <row r="81" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B81" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="C81" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="64" t="s">
-        <v>280</v>
-      </c>
-      <c r="F81" s="65"/>
-      <c r="G81" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="H81" s="66"/>
-      <c r="I81" s="65"/>
-    </row>
-    <row r="82" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="F82" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="53"/>
-    </row>
-    <row r="83" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="E83" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F83" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="G83" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="H83" s="55"/>
-      <c r="I83" s="53"/>
-    </row>
-    <row r="84" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F84" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G84" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="H84" s="55"/>
-      <c r="I84" s="53"/>
-    </row>
-    <row r="85" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="G85" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="H85" s="55"/>
-      <c r="I85" s="53"/>
-    </row>
-    <row r="86" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="E86" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F86" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G86" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-    </row>
-    <row r="87" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="53"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="53"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="F90" s="53"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="53"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="53"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="53"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="53"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="H114" s="136"/>
+      <c r="I114" s="136"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="59">
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B78:B80"/>
+  <mergeCells count="85">
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B30:B43"/>
     <mergeCell ref="B4:B10"/>
     <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C22:C29"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="C107:C109"/>
     <mergeCell ref="M4:P4"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J40:Q44"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J57:Q61"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4284,6 +5038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -4349,10 +5122,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -4368,10 +5141,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -4379,10 +5152,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
@@ -4530,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B15"/>
   <sheetViews>

--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="369">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,11 +517,6 @@
     <t>- 로그인 ㅇ : 찜 한 목록이 있을 시 목록 출력
 - 로그인 X : 제목, 선 만 출력
 - 클릭시 : 상세페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 지도, 메인페이지에서 찜한 매물 출력
-- 클릭시 : 상세페이지로이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1544,10 +1539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USERDEL01-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIGNUP01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1572,16 +1563,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>찜 목록 토글 메뉴 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 찜 목록 토글 메뉴 버튼 생성
+    <t>- 지도, 메인페이지에서 찜한 매물 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜한 매물 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 찜한 매물 링크 클릭시 : 상세페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-REDIRECT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-PRINT03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYPAGE01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 목록 토글 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 찜 목록 토글 메뉴
 - 메뉴 클릭시 : 찜 목록 리스트 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MYPAGE01-PRINT02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2133,198 +2156,282 @@
     <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2333,90 +2440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2742,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U114"/>
+  <dimension ref="A3:U118"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="C82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2789,10 +2812,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="96" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2813,16 +2836,16 @@
       <c r="I4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
+      <c r="M4" s="125" t="s">
+        <v>233</v>
+      </c>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2845,8 +2868,8 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -2857,28 +2880,28 @@
         <v>52</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
         <v>53</v>
       </c>
       <c r="K6" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>43</v>
@@ -2892,18 +2915,18 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="O7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="23" t="s">
         <v>105</v>
       </c>
@@ -2919,20 +2942,20 @@
       <c r="H8" s="24"/>
       <c r="I8" s="23"/>
       <c r="O8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="139" t="s">
-        <v>333</v>
+        <v>297</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>43</v>
@@ -2946,15 +2969,15 @@
       <c r="H9" s="24"/>
       <c r="I9" s="23"/>
       <c r="P9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>43</v>
@@ -2971,14 +2994,14 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="105" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>51</v>
@@ -2991,7 +3014,7 @@
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
@@ -3000,10 +3023,10 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>43</v>
@@ -3020,10 +3043,10 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>43</v>
@@ -3038,10 +3061,10 @@
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>43</v>
@@ -3056,10 +3079,10 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>43</v>
@@ -3074,10 +3097,10 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>43</v>
@@ -3092,10 +3115,10 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>43</v>
@@ -3110,82 +3133,82 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="131"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
     </row>
     <row r="19" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="160" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="159" t="s">
-        <v>303</v>
+      <c r="B19" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="146" t="s">
+        <v>302</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="91"/>
-      <c r="C20" s="159"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="63" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="65" t="s">
         <v>306</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>307</v>
       </c>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="161"/>
-      <c r="C21" s="159"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="63" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
     </row>
     <row r="22" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="50"/>
-      <c r="C22" s="83" t="s">
-        <v>301</v>
+      <c r="C22" s="94" t="s">
+        <v>300</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>43</v>
@@ -3201,9 +3224,9 @@
     </row>
     <row r="23" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>43</v>
@@ -3219,15 +3242,15 @@
     </row>
     <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="51"/>
-      <c r="C24" s="83"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>83</v>
@@ -3237,9 +3260,9 @@
     </row>
     <row r="25" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="51"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>43</v>
@@ -3255,17 +3278,17 @@
     </row>
     <row r="26" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="C26" s="83"/>
+        <v>353</v>
+      </c>
+      <c r="C26" s="94"/>
       <c r="D26" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="41" t="s">
         <v>86</v>
@@ -3275,9 +3298,9 @@
     </row>
     <row r="27" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="51"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E27" s="32" t="s">
         <v>43</v>
@@ -3293,9 +3316,9 @@
     </row>
     <row r="28" spans="2:16" ht="99" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="83"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>43</v>
@@ -3304,23 +3327,23 @@
         <v>100</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
     </row>
     <row r="29" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B29" s="52"/>
-      <c r="C29" s="84"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>43</v>
@@ -3339,46 +3362,46 @@
       <c r="L29" s="19"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="82" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="85" t="s">
+      <c r="B30" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="157" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="158" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="82"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="93"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="84"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="95"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
     </row>
     <row r="32" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>43</v>
@@ -3395,16 +3418,16 @@
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>83</v>
@@ -3415,10 +3438,10 @@
       <c r="L33" s="19"/>
     </row>
     <row r="34" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>43</v>
@@ -3435,16 +3458,16 @@
       <c r="L34" s="19"/>
     </row>
     <row r="35" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="41" t="s">
         <v>86</v>
@@ -3455,10 +3478,10 @@
       <c r="L35" s="19"/>
     </row>
     <row r="36" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>43</v>
@@ -3475,19 +3498,19 @@
       <c r="L36" s="19"/>
     </row>
     <row r="37" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E37" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="G37" s="41" t="s">
         <v>321</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>322</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="40"/>
@@ -3495,10 +3518,10 @@
       <c r="L37" s="19"/>
     </row>
     <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>43</v>
@@ -3507,7 +3530,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H38" s="41"/>
       <c r="I38" s="40"/>
@@ -3515,152 +3538,152 @@
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="79" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="88" t="s">
+      <c r="G39" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="82"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="93"/>
       <c r="K39" s="14"/>
       <c r="L39" s="19"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="83"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="94"/>
       <c r="K40" s="14"/>
       <c r="L40" s="19"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="83"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="94"/>
       <c r="K41" s="14"/>
       <c r="L41" s="19"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="83"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="94"/>
       <c r="K42" s="14"/>
       <c r="L42" s="19"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="84"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="95"/>
       <c r="K43" s="14"/>
       <c r="L43" s="19"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="69" t="s">
+      <c r="B44" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="73" t="s">
-        <v>187</v>
+      <c r="D44" s="113" t="s">
+        <v>186</v>
       </c>
       <c r="E44" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="73" t="s">
+      <c r="F44" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
+      <c r="G44" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
       <c r="K44" s="14"/>
       <c r="L44" s="19"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="111"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="111"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="111"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="111"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="74"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="74"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
       <c r="K48" s="14"/>
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E49" s="59" t="s">
         <v>43</v>
@@ -3677,50 +3700,50 @@
       <c r="L49" s="19"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B50" s="129" t="s">
+      <c r="B50" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="115" t="s">
+      <c r="E50" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
       <c r="K50" s="14"/>
       <c r="L50" s="19"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
     </row>
     <row r="52" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E52" s="49" t="s">
         <v>43</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>96</v>
@@ -3729,16 +3752,16 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>43</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>104</v>
@@ -3751,14 +3774,14 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B54" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="113" t="s">
+      <c r="B54" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="102" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54" s="48" t="s">
         <v>43</v>
@@ -3773,46 +3796,46 @@
       <c r="I54" s="35"/>
     </row>
     <row r="55" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="101" t="s">
-        <v>194</v>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="134" t="s">
+        <v>193</v>
       </c>
       <c r="E55" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="101" t="s">
+      <c r="F55" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="109" t="s">
+      <c r="G55" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="110"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
       <c r="K56" s="14"/>
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="C57" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>196</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>43</v>
@@ -3825,106 +3848,106 @@
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="106" t="s">
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="139" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
+      <c r="N58" s="129"/>
+      <c r="O58" s="129"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="140"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+    </row>
+    <row r="60" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="140"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="141"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+    </row>
+    <row r="62" spans="2:21" ht="54" x14ac:dyDescent="0.3">
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="106" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="107"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-    </row>
-    <row r="60" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="107"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="108"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-    </row>
-    <row r="62" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>43</v>
@@ -3933,7 +3956,7 @@
         <v>103</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
@@ -3947,1049 +3970,1072 @@
       <c r="Q62" s="45"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="46" t="s">
-        <v>200</v>
-      </c>
       <c r="E63" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G63" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I63" s="46"/>
       <c r="M63" s="20"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B64" s="128"/>
-      <c r="C64" s="126"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E64" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F64" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="G64" s="68" t="s">
-        <v>151</v>
-      </c>
       <c r="H64" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="46"/>
       <c r="M64" s="20"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="128"/>
-      <c r="C65" s="126"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" spans="1:14" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="B66" s="101"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="46" t="s">
+      <c r="E66" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="M65" s="20"/>
-    </row>
-    <row r="66" spans="1:14" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B66" s="128"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="G66" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="H66" s="46" t="s">
         <v>323</v>
-      </c>
-      <c r="H66" s="46" t="s">
-        <v>324</v>
       </c>
       <c r="I66" s="46"/>
       <c r="J66" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M66" s="20"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="128"/>
-      <c r="C67" s="127"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E67" s="66" t="s">
         <v>43</v>
       </c>
       <c r="F67" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H67" s="46"/>
       <c r="I67" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M67" s="20"/>
       <c r="N67" s="21"/>
     </row>
     <row r="68" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B68" s="113" t="s">
+      <c r="B68" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="113" t="s">
-        <v>300</v>
-      </c>
-      <c r="D68" s="35" t="s">
+      <c r="E68" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="I68" s="35" t="s">
+      <c r="E69" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="35" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="G69" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H69" s="36"/>
       <c r="I69" s="35"/>
     </row>
     <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E70" s="48" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
     </row>
-    <row r="71" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="144" t="s">
+      <c r="B71" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="144" t="s">
+      <c r="E71" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="H71" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="I71" s="74"/>
+    </row>
+    <row r="72" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="148"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I72" s="74"/>
+    </row>
+    <row r="73" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="I73" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F74" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+    </row>
+    <row r="75" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="148"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E75" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="I75" s="74"/>
+    </row>
+    <row r="76" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="148"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="E76" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+    </row>
+    <row r="77" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+    </row>
+    <row r="78" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="149"/>
+      <c r="C78" s="149"/>
+      <c r="D78" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="E78" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+    </row>
+    <row r="79" spans="1:14" s="84" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="F79" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="G79" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="H79" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="I79" s="82"/>
+    </row>
+    <row r="80" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F80" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="G80" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80" s="83"/>
+      <c r="I80" s="82"/>
+    </row>
+    <row r="81" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="141" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="142" t="s">
-        <v>329</v>
-      </c>
-      <c r="H71" s="142" t="s">
-        <v>226</v>
-      </c>
-      <c r="I71" s="141"/>
-    </row>
-    <row r="72" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="141" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="142" t="s">
-        <v>123</v>
-      </c>
-      <c r="H72" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="I72" s="141"/>
-    </row>
-    <row r="73" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="I73" s="141" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="141" t="s">
-        <v>326</v>
-      </c>
-      <c r="E74" s="140" t="s">
-        <v>320</v>
-      </c>
-      <c r="F74" s="141" t="s">
-        <v>267</v>
-      </c>
-      <c r="G74" s="142" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-    </row>
-    <row r="75" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="145"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="141" t="s">
-        <v>346</v>
-      </c>
-      <c r="E75" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" s="141" t="s">
-        <v>327</v>
-      </c>
-      <c r="G75" s="142" t="s">
-        <v>328</v>
-      </c>
-      <c r="H75" s="141" t="s">
-        <v>328</v>
-      </c>
-      <c r="I75" s="141"/>
-    </row>
-    <row r="76" spans="1:14" s="143" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="145"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="141" t="s">
-        <v>347</v>
-      </c>
-      <c r="E76" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" s="142" t="s">
-        <v>331</v>
-      </c>
-      <c r="H76" s="141"/>
-      <c r="I76" s="141"/>
-    </row>
-    <row r="77" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="141" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="F77" s="141" t="s">
-        <v>334</v>
-      </c>
-      <c r="G77" s="142" t="s">
-        <v>341</v>
-      </c>
-      <c r="H77" s="141"/>
-      <c r="I77" s="141"/>
-    </row>
-    <row r="78" spans="1:14" s="143" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="146"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="141" t="s">
-        <v>348</v>
-      </c>
-      <c r="E78" s="140" t="s">
-        <v>320</v>
-      </c>
-      <c r="F78" s="141" t="s">
-        <v>311</v>
-      </c>
-      <c r="G78" s="142" t="s">
-        <v>335</v>
-      </c>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141"/>
-    </row>
-    <row r="79" spans="1:14" s="158" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="160" t="s">
-        <v>349</v>
-      </c>
-      <c r="C79" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="D79" s="156" t="s">
-        <v>350</v>
-      </c>
-      <c r="E79" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="F79" s="156" t="s">
-        <v>339</v>
-      </c>
-      <c r="G79" s="157" t="s">
-        <v>338</v>
-      </c>
-      <c r="H79" s="157" t="s">
-        <v>340</v>
-      </c>
-      <c r="I79" s="156"/>
-    </row>
-    <row r="80" spans="1:14" s="158" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="161"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="156" t="s">
-        <v>351</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="F80" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="G80" s="157" t="s">
-        <v>344</v>
-      </c>
-      <c r="H80" s="157"/>
-      <c r="I80" s="156"/>
-    </row>
-    <row r="81" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B81" s="121" t="s">
+      <c r="D81" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="121" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="37" t="s">
+      <c r="E81" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E81" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="37" t="s">
+      <c r="E82" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="G81" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="121"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="G82" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="37"/>
     </row>
     <row r="83" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="121"/>
-      <c r="C83" s="121"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
       <c r="D83" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>43</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="69" t="s">
+      <c r="B84" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>218</v>
-      </c>
       <c r="E84" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F84" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="114"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F85" s="73" t="s">
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="G85" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" s="77"/>
-      <c r="I85" s="69"/>
+      <c r="H85" s="159"/>
+      <c r="I85" s="96"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="70"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="104"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="160"/>
+      <c r="I86" s="104"/>
     </row>
     <row r="87" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="B87" s="122" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="122" t="s">
+      <c r="B87" s="110" t="s">
         <v>229</v>
       </c>
+      <c r="C87" s="110" t="s">
+        <v>228</v>
+      </c>
       <c r="D87" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="I87" s="54"/>
+    </row>
+    <row r="88" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="B88" s="111"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="E87" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="F87" s="54" t="s">
+      <c r="E88" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" s="55" t="s">
         <v>235</v>
-      </c>
-      <c r="G87" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="H87" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="I87" s="54"/>
-    </row>
-    <row r="88" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B88" s="123"/>
-      <c r="C88" s="123"/>
-      <c r="D88" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="E88" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="F88" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="55" t="s">
-        <v>236</v>
       </c>
       <c r="H88" s="55"/>
       <c r="I88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E89" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F89" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="55" t="s">
         <v>259</v>
-      </c>
-      <c r="G89" s="55" t="s">
-        <v>260</v>
       </c>
       <c r="H89" s="55"/>
       <c r="I89" s="54"/>
     </row>
-    <row r="90" spans="1:14" s="158" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="84" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="160" t="s">
+      <c r="B90" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D90" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="H90" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="I90" s="82"/>
+    </row>
+    <row r="91" spans="1:14" s="84" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G91" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="H91" s="83"/>
+      <c r="I91" s="82"/>
+    </row>
+    <row r="92" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="H92" s="83"/>
+      <c r="I92" s="82"/>
+    </row>
+    <row r="93" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="G93" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="H93" s="83"/>
+      <c r="I93" s="82"/>
+    </row>
+    <row r="94" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F94" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="G94" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="H94" s="83"/>
+      <c r="I94" s="82"/>
+    </row>
+    <row r="95" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="H95" s="83"/>
+      <c r="I95" s="82"/>
+      <c r="N95" s="86"/>
+    </row>
+    <row r="96" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="88"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="85"/>
+      <c r="F96" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="G96" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" s="83"/>
+      <c r="I96" s="82"/>
+      <c r="N96" s="86"/>
+    </row>
+    <row r="97" spans="1:9" s="76" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C90" s="160" t="s">
-        <v>310</v>
-      </c>
-      <c r="D90" s="156" t="s">
-        <v>251</v>
-      </c>
-      <c r="E90" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F90" s="156" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="H90" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="I90" s="156"/>
-    </row>
-    <row r="91" spans="1:14" s="158" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="156" t="s">
-        <v>252</v>
-      </c>
-      <c r="E91" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F91" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="G91" s="157" t="s">
-        <v>246</v>
-      </c>
-      <c r="H91" s="157"/>
-      <c r="I91" s="156"/>
-    </row>
-    <row r="92" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F92" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="G92" s="157" t="s">
-        <v>248</v>
-      </c>
-      <c r="H92" s="157"/>
-      <c r="I92" s="156"/>
-    </row>
-    <row r="93" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="161"/>
-      <c r="C93" s="161"/>
-      <c r="D93" s="156" t="s">
+      <c r="D97" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="E93" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="156" t="s">
-        <v>249</v>
-      </c>
-      <c r="G93" s="157" t="s">
-        <v>250</v>
-      </c>
-      <c r="H93" s="157"/>
-      <c r="I93" s="156"/>
-    </row>
-    <row r="94" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="162"/>
-      <c r="C94" s="160"/>
-      <c r="D94" s="156" t="s">
-        <v>362</v>
-      </c>
-      <c r="E94" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94" s="156" t="s">
-        <v>360</v>
-      </c>
-      <c r="G94" s="157" t="s">
-        <v>361</v>
-      </c>
-      <c r="H94" s="157"/>
-      <c r="I94" s="156"/>
-    </row>
-    <row r="95" spans="1:14" s="158" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B95" s="64"/>
-      <c r="C95" s="161"/>
-      <c r="D95" s="156"/>
-      <c r="E95" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="F95" s="156" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="H95" s="157"/>
-      <c r="I95" s="156"/>
-      <c r="N95" s="163"/>
-    </row>
-    <row r="96" spans="1:14" s="143" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="140" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="140" t="s">
-        <v>353</v>
-      </c>
-      <c r="E96" s="140" t="s">
-        <v>255</v>
-      </c>
-      <c r="F96" s="141"/>
-      <c r="G96" s="142" t="s">
-        <v>345</v>
-      </c>
-      <c r="H96" s="142"/>
-      <c r="I96" s="141"/>
-    </row>
-    <row r="97" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="151" t="s">
+      <c r="F97" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="G97" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="H97" s="75"/>
+      <c r="I97" s="74"/>
+    </row>
+    <row r="98" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="74"/>
+    </row>
+    <row r="99" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="74"/>
+    </row>
+    <row r="100" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="74"/>
+    </row>
+    <row r="101" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="H101" s="80"/>
+      <c r="I101" s="78"/>
+    </row>
+    <row r="102" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="E102" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H102" s="80"/>
+      <c r="I102" s="78"/>
+    </row>
+    <row r="103" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H103" s="80"/>
+      <c r="I103" s="78"/>
+    </row>
+    <row r="104" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G104" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" s="80"/>
+      <c r="I104" s="78"/>
+    </row>
+    <row r="105" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+    </row>
+    <row r="106" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="151" t="s">
-        <v>156</v>
-      </c>
-      <c r="D97" s="152" t="s">
-        <v>220</v>
-      </c>
-      <c r="E97" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F97" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="H97" s="154"/>
-      <c r="I97" s="152"/>
-    </row>
-    <row r="98" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="151"/>
-      <c r="C98" s="151"/>
-      <c r="D98" s="152" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F98" s="152" t="s">
-        <v>161</v>
-      </c>
-      <c r="G98" s="154" t="s">
-        <v>165</v>
-      </c>
-      <c r="H98" s="154"/>
-      <c r="I98" s="152"/>
-    </row>
-    <row r="99" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="151"/>
-      <c r="C99" s="151"/>
-      <c r="D99" s="152" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F99" s="152" t="s">
-        <v>162</v>
-      </c>
-      <c r="G99" s="154" t="s">
-        <v>163</v>
-      </c>
-      <c r="H99" s="154"/>
-      <c r="I99" s="152"/>
-    </row>
-    <row r="100" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="151"/>
-      <c r="C100" s="151"/>
-      <c r="D100" s="152" t="s">
-        <v>223</v>
-      </c>
-      <c r="E100" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F100" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="154" t="s">
-        <v>159</v>
-      </c>
-      <c r="H100" s="154"/>
-      <c r="I100" s="152"/>
-    </row>
-    <row r="101" spans="1:9" s="155" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
-      <c r="B101" s="151"/>
-      <c r="C101" s="151"/>
-      <c r="D101" s="152" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F101" s="152" t="s">
-        <v>160</v>
-      </c>
-      <c r="G101" s="154" t="s">
+      <c r="C106" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="H101" s="152"/>
-      <c r="I101" s="152"/>
-    </row>
-    <row r="102" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="151" t="s">
+      <c r="D106" s="78"/>
+      <c r="E106" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="C102" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="152"/>
-      <c r="E102" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F102" s="152"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="152"/>
-    </row>
-    <row r="103" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
-      <c r="B103" s="151"/>
-      <c r="C103" s="151"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F103" s="152"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="154"/>
-      <c r="I103" s="152"/>
-    </row>
-    <row r="104" spans="1:9" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
-      <c r="B104" s="151"/>
-      <c r="C104" s="151"/>
-      <c r="D104" s="152"/>
-      <c r="E104" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F104" s="152"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="152"/>
-      <c r="I104" s="152"/>
-    </row>
-    <row r="105" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="147"/>
-      <c r="C105" s="147" t="s">
+      <c r="F106" s="78"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="80"/>
+      <c r="I106" s="78"/>
+    </row>
+    <row r="107" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="109"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107" s="78"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="80"/>
+      <c r="I107" s="78"/>
+    </row>
+    <row r="108" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F108" s="78"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+    </row>
+    <row r="109" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="69"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="D105" s="136"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="136" t="s">
+      <c r="G109" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="H109" s="71"/>
+      <c r="I109" s="69"/>
+    </row>
+    <row r="110" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="G105" s="138" t="s">
+      <c r="G110" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="H110" s="71"/>
+      <c r="I110" s="69"/>
+    </row>
+    <row r="111" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="H105" s="138"/>
-      <c r="I105" s="136"/>
-    </row>
-    <row r="106" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="150"/>
-      <c r="C106" s="150"/>
-      <c r="D106" s="136"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="136" t="s">
-        <v>283</v>
-      </c>
-      <c r="G106" s="138" t="s">
-        <v>236</v>
-      </c>
-      <c r="H106" s="138"/>
-      <c r="I106" s="136"/>
-    </row>
-    <row r="107" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="147"/>
-      <c r="C107" s="147" t="s">
+      <c r="D111" s="69"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="136"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="136" t="s">
+      <c r="G111" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="H111" s="71"/>
+      <c r="I111" s="69"/>
+    </row>
+    <row r="112" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="70"/>
+      <c r="F112" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="G107" s="138" t="s">
+      <c r="G112" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="H107" s="138"/>
-      <c r="I107" s="136"/>
-    </row>
-    <row r="108" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="149"/>
-      <c r="D108" s="136"/>
-      <c r="E108" s="137"/>
-      <c r="F108" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="G108" s="138" t="s">
+      <c r="H112" s="71"/>
+      <c r="I112" s="69"/>
+    </row>
+    <row r="113" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="H108" s="138"/>
-      <c r="I108" s="136"/>
-    </row>
-    <row r="109" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="150"/>
-      <c r="C109" s="150"/>
-      <c r="D109" s="136"/>
-      <c r="E109" s="137"/>
-      <c r="F109" s="136" t="s">
+      <c r="G113" s="71" t="s">
+        <v>291</v>
+      </c>
+      <c r="H113" s="71"/>
+      <c r="I113" s="69"/>
+    </row>
+    <row r="114" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="89" t="s">
         <v>290</v>
       </c>
-      <c r="G109" s="138" t="s">
-        <v>292</v>
-      </c>
-      <c r="H109" s="138"/>
-      <c r="I109" s="136"/>
-    </row>
-    <row r="110" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="147"/>
-      <c r="C110" s="147" t="s">
-        <v>291</v>
-      </c>
-      <c r="D110" s="136"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="136" t="s">
+      <c r="D114" s="69"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G114" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="G110" s="138" t="s">
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
+    </row>
+    <row r="115" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="H110" s="136"/>
-      <c r="I110" s="136"/>
-    </row>
-    <row r="111" spans="1:9" s="148" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="149"/>
-      <c r="C111" s="149"/>
-      <c r="D111" s="136"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="136" t="s">
+      <c r="G115" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="G111" s="138" t="s">
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+    </row>
+    <row r="116" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="H111" s="136"/>
-      <c r="I111" s="136"/>
-    </row>
-    <row r="112" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="149"/>
-      <c r="C112" s="149"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="136" t="s">
+      <c r="G116" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="G112" s="138" t="s">
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
+    </row>
+    <row r="117" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="69"/>
+      <c r="E117" s="70"/>
+      <c r="F117" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="H112" s="136"/>
-      <c r="I112" s="136"/>
-    </row>
-    <row r="113" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="150"/>
-      <c r="C113" s="150"/>
-      <c r="D113" s="136"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="136" t="s">
+      <c r="G117" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="G113" s="138" t="s">
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
+    </row>
+    <row r="118" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="69" t="s">
         <v>278</v>
       </c>
-      <c r="H113" s="136"/>
-      <c r="I113" s="136"/>
-    </row>
-    <row r="114" spans="1:9" s="148" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="137"/>
-      <c r="C114" s="137"/>
-      <c r="D114" s="136"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="136" t="s">
+      <c r="G118" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="G114" s="138" t="s">
-        <v>280</v>
-      </c>
-      <c r="H114" s="136"/>
-      <c r="I114" s="136"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="85">
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B30:B43"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="C107:C109"/>
+  <mergeCells count="84">
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="J28:P28"/>
     <mergeCell ref="J57:Q61"/>
@@ -5006,30 +5052,62 @@
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="C111:C113"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C19:C21"/>
     <mergeCell ref="C71:C78"/>
-    <mergeCell ref="C30:C43"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="I85:I86"/>
     <mergeCell ref="B71:B78"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="H85:H86"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B30:B43"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C109:C110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5047,7 +5125,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5122,10 +5200,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -5141,10 +5219,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="134"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -5152,10 +5230,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="163"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>

--- a/doc/B1k3_요구명세서.xlsx
+++ b/doc/B1k3_요구명세서.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="395">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1407,10 +1407,6 @@
   </si>
   <si>
     <t>- 체크박스 선택란 출력으로 원하는 매물 검색 가능한란 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 체크박스란 (건물유형,거래유형, 가격, 층수, 주차가능 여부, 반려동물 가능 여부, 엘리베이터 유무, 옵션(에어컨, 전자레인지, 냉장고, 세탁기, 침대, 인덕션)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1605,6 +1601,133 @@
   <si>
     <t>- 찜 목록 토글 메뉴
 - 메뉴 클릭시 : 찜 목록 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-REDIRECT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 탈퇴 버튼 생성
+- 클릭 시 : 모달창 뜸(확인, 취소 버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 모달창 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 탈퇴 모달창 생성
+- 문구 출력 : '정말로 탈퇴 하시겠습니까?'
+- 확인 버튼
+- 취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-EXECUTE01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달창 탈퇴 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달창 취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 이름 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 유저 로그인시 : 유저 아이디 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 판매자 로그인시 : 판매자 이름 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 유저아이디, 판매자 이름 클릭 시 : 마이페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디, 판매자 이름 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-PRINT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEADER01-REDIRECT06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERDEL01-REDIRECT02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 버튼 클릭시 : 마이페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 버튼 클릭시 : 탈퇴 완료 되고 -&gt; 메인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터 목록 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회사소개, 이용약관, 고객센터, 회사로고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOOTER01-PRINT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 체크박스란 
+(건물유형
+,거래유형, 
+가격,
+ 층수,
+ 주차가능 여부, 
+반려동물 가능 여부, 
+엘리베이터 유무, 
+옵션(에어컨, 
+전자레인지, 
+냉장고, 
+세탁기, 
+침대, 
+인덕션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로, 아래로 이동하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 위, 아래로 이동하기 버튼 출력
+- 위 버튼 클릭시 : 최상단으로 이동
+- 아래 버튼 클릭시 : 최하단으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-EXECUTE01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,7 +1865,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,6 +1986,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1948,7 +2077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2204,45 +2333,198 @@
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2255,15 +2537,9 @@
     <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,12 +2549,12 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2288,150 +2564,6 @@
     <xf numFmtId="49" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2440,6 +2572,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2765,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U118"/>
+  <dimension ref="A3:DU122"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2812,10 +2977,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="137" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2836,16 +3001,16 @@
       <c r="I4" s="24"/>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="125" t="s">
+      <c r="M4" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:18" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
@@ -2868,8 +3033,8 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="23" t="s">
         <v>50</v>
       </c>
@@ -2898,8 +3063,8 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="23" t="s">
         <v>172</v>
       </c>
@@ -2921,12 +3086,12 @@
         <v>296</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="23" t="s">
         <v>105</v>
       </c>
@@ -2948,12 +3113,12 @@
         <v>297</v>
       </c>
       <c r="Q8" s="72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
       <c r="D9" s="23" t="s">
         <v>170</v>
       </c>
@@ -2974,8 +3139,8 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="2:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
       <c r="D10" s="23" t="s">
         <v>171</v>
       </c>
@@ -2994,10 +3159,10 @@
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="154" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="26" t="s">
@@ -3023,8 +3188,8 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="26" t="s">
         <v>174</v>
       </c>
@@ -3043,8 +3208,8 @@
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
       <c r="D13" s="26" t="s">
         <v>175</v>
       </c>
@@ -3061,8 +3226,8 @@
       <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="26" t="s">
         <v>176</v>
       </c>
@@ -3079,8 +3244,8 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="26" t="s">
         <v>177</v>
       </c>
@@ -3097,8 +3262,8 @@
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="26" t="s">
         <v>178</v>
       </c>
@@ -3115,8 +3280,8 @@
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="26" t="s">
         <v>179</v>
       </c>
@@ -3133,8 +3298,8 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="107"/>
-      <c r="C18" s="106"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="26" t="s">
         <v>257</v>
       </c>
@@ -3151,16 +3316,18 @@
       <c r="I18" s="29"/>
     </row>
     <row r="19" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="157" t="s">
         <v>302</v>
       </c>
       <c r="D19" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="87" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="63" t="s">
         <v>301</v>
       </c>
@@ -3171,12 +3338,14 @@
       <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="92"/>
-      <c r="C20" s="146"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="63" t="s">
-        <v>356</v>
-      </c>
-      <c r="E20" s="64"/>
+        <v>355</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="63" t="s">
         <v>305</v>
       </c>
@@ -3187,12 +3356,14 @@
       <c r="I20" s="63"/>
     </row>
     <row r="21" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
-      <c r="C21" s="146"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="64"/>
+        <v>356</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>43</v>
+      </c>
       <c r="F21" s="63" t="s">
         <v>304</v>
       </c>
@@ -3204,7 +3375,7 @@
     </row>
     <row r="22" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="50"/>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="93" t="s">
         <v>300</v>
       </c>
       <c r="D22" s="40" t="s">
@@ -3224,7 +3395,7 @@
     </row>
     <row r="23" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="51"/>
-      <c r="C23" s="94"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="40" t="s">
         <v>315</v>
       </c>
@@ -3242,7 +3413,7 @@
     </row>
     <row r="24" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="51"/>
-      <c r="C24" s="94"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="31" t="s">
         <v>314</v>
       </c>
@@ -3260,7 +3431,7 @@
     </row>
     <row r="25" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="51"/>
-      <c r="C25" s="94"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="40" t="s">
         <v>313</v>
       </c>
@@ -3278,9 +3449,9 @@
     </row>
     <row r="26" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="94"/>
+        <v>352</v>
+      </c>
+      <c r="C26" s="93"/>
       <c r="D26" s="31" t="s">
         <v>312</v>
       </c>
@@ -3298,7 +3469,7 @@
     </row>
     <row r="27" spans="2:16" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="51"/>
-      <c r="C27" s="94"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="40" t="s">
         <v>311</v>
       </c>
@@ -3316,7 +3487,7 @@
     </row>
     <row r="28" spans="2:16" ht="99" x14ac:dyDescent="0.3">
       <c r="B28" s="51"/>
-      <c r="C28" s="94"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="40" t="s">
         <v>317</v>
       </c>
@@ -3331,19 +3502,19 @@
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
     </row>
     <row r="29" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B29" s="52"/>
-      <c r="C29" s="95"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>43</v>
@@ -3362,44 +3533,44 @@
       <c r="L29" s="19"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="93" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="92" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" s="92" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="E30" s="158" t="s">
+      <c r="E30" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="157" t="s">
+      <c r="F30" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="150" t="s">
+      <c r="G30" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="93"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="92"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="95"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="94"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
     </row>
     <row r="32" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="40" t="s">
         <v>315</v>
       </c>
@@ -3418,8 +3589,8 @@
       <c r="L32" s="19"/>
     </row>
     <row r="33" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="31" t="s">
         <v>314</v>
       </c>
@@ -3438,8 +3609,8 @@
       <c r="L33" s="19"/>
     </row>
     <row r="34" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="40" t="s">
         <v>313</v>
       </c>
@@ -3458,8 +3629,8 @@
       <c r="L34" s="19"/>
     </row>
     <row r="35" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="31" t="s">
         <v>312</v>
       </c>
@@ -3478,8 +3649,8 @@
       <c r="L35" s="19"/>
     </row>
     <row r="36" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="40" t="s">
         <v>311</v>
       </c>
@@ -3498,8 +3669,8 @@
       <c r="L36" s="19"/>
     </row>
     <row r="37" spans="2:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="40" t="s">
         <v>317</v>
       </c>
@@ -3518,8 +3689,8 @@
       <c r="L37" s="19"/>
     </row>
     <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="40" t="s">
         <v>318</v>
       </c>
@@ -3538,150 +3709,150 @@
       <c r="L38" s="19"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="153" t="s">
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="E39" s="93" t="s">
+      <c r="E39" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="153" t="s">
+      <c r="F39" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="151" t="s">
+      <c r="G39" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="151"/>
-      <c r="I39" s="93"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="92"/>
       <c r="K39" s="14"/>
       <c r="L39" s="19"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="94"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="93"/>
       <c r="K40" s="14"/>
       <c r="L40" s="19"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="94"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="93"/>
       <c r="K41" s="14"/>
       <c r="L41" s="19"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="94"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="93"/>
       <c r="K42" s="14"/>
       <c r="L42" s="19"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="95"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="94"/>
       <c r="K43" s="14"/>
       <c r="L43" s="19"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="120" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="113" t="s">
+      <c r="F44" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
       <c r="K44" s="14"/>
       <c r="L44" s="19"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="114"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="114"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="114"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="114"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="143"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="115"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
       <c r="K48" s="14"/>
       <c r="L48" s="19"/>
     </row>
     <row r="49" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="57" t="s">
         <v>187</v>
       </c>
@@ -3700,42 +3871,42 @@
       <c r="L49" s="19"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="153" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="144" t="s">
+      <c r="D50" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="144" t="s">
+      <c r="E50" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="119" t="s">
+      <c r="F50" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="121" t="s">
+      <c r="G50" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
       <c r="K50" s="14"/>
       <c r="L50" s="19"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
       <c r="D52" s="33" t="s">
         <v>190</v>
       </c>
@@ -3752,8 +3923,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="2:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
       <c r="D53" s="33" t="s">
         <v>191</v>
       </c>
@@ -3774,10 +3945,10 @@
       </c>
     </row>
     <row r="54" spans="2:21" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="144" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -3796,42 +3967,42 @@
       <c r="I54" s="35"/>
     </row>
     <row r="55" spans="2:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="134" t="s">
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="110" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="134" t="s">
+      <c r="F55" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="G55" s="142" t="s">
+      <c r="G55" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="135"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="111"/>
       <c r="E56" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="135"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
       <c r="K56" s="14"/>
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B57" s="131" t="s">
+      <c r="B57" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="107" t="s">
         <v>227</v>
       </c>
       <c r="D57" s="37" t="s">
@@ -3848,104 +4019,98 @@
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="129"/>
-      <c r="Q57" s="129"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="139" t="s">
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="139" t="s">
+      <c r="F58" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="136" t="s">
+      <c r="G58" s="112" t="s">
         <v>295</v>
       </c>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="140"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="105"/>
     </row>
     <row r="60" spans="2:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="141"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
     </row>
     <row r="62" spans="2:21" ht="54" x14ac:dyDescent="0.3">
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="42" t="s">
         <v>197</v>
       </c>
@@ -3970,10 +4135,10 @@
       <c r="Q62" s="45"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="98" t="s">
+      <c r="C63" s="149" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="46" t="s">
@@ -3995,8 +4160,8 @@
       <c r="M63" s="20"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B64" s="101"/>
-      <c r="C64" s="99"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="150"/>
       <c r="D64" s="46" t="s">
         <v>200</v>
       </c>
@@ -4015,9 +4180,9 @@
       <c r="I64" s="46"/>
       <c r="M64" s="20"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="101"/>
-      <c r="C65" s="99"/>
+    <row r="65" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="B65" s="152"/>
+      <c r="C65" s="150"/>
       <c r="D65" s="46" t="s">
         <v>201</v>
       </c>
@@ -4031,16 +4196,16 @@
         <v>144</v>
       </c>
       <c r="H65" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I65" s="46" t="s">
         <v>147</v>
       </c>
       <c r="M65" s="20"/>
     </row>
-    <row r="66" spans="1:14" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="B66" s="101"/>
-      <c r="C66" s="99"/>
+    <row r="66" spans="1:125" ht="231" x14ac:dyDescent="0.3">
+      <c r="B66" s="152"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="46" t="s">
         <v>202</v>
       </c>
@@ -4053,8 +4218,8 @@
       <c r="G66" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="H66" s="46" t="s">
-        <v>323</v>
+      <c r="H66" s="68" t="s">
+        <v>391</v>
       </c>
       <c r="I66" s="46"/>
       <c r="J66" s="60" t="s">
@@ -4062,9 +4227,9 @@
       </c>
       <c r="M66" s="20"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="101"/>
-      <c r="C67" s="100"/>
+    <row r="67" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="B67" s="152"/>
+      <c r="C67" s="151"/>
       <c r="D67" s="46" t="s">
         <v>203</v>
       </c>
@@ -4084,11 +4249,11 @@
       <c r="M67" s="20"/>
       <c r="N67" s="21"/>
     </row>
-    <row r="68" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B68" s="102" t="s">
+    <row r="68" spans="1:125" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="102" t="s">
+      <c r="C68" s="144" t="s">
         <v>299</v>
       </c>
       <c r="D68" s="35" t="s">
@@ -4110,9 +4275,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B69" s="102"/>
-      <c r="C69" s="102"/>
+    <row r="69" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
       <c r="D69" s="35" t="s">
         <v>206</v>
       </c>
@@ -4128,9 +4293,9 @@
       <c r="H69" s="36"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B70" s="102"/>
-      <c r="C70" s="102"/>
+    <row r="70" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
       <c r="D70" s="35" t="s">
         <v>207</v>
       </c>
@@ -4146,12 +4311,12 @@
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
     </row>
-    <row r="71" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:125" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="147" t="s">
+      <c r="B71" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="147" t="s">
+      <c r="C71" s="134" t="s">
         <v>267</v>
       </c>
       <c r="D71" s="74" t="s">
@@ -4164,17 +4329,133 @@
         <v>118</v>
       </c>
       <c r="G71" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H71" s="75" t="s">
         <v>225</v>
       </c>
       <c r="I71" s="74"/>
-    </row>
-    <row r="72" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="1"/>
+      <c r="CZ71" s="1"/>
+      <c r="DA71" s="1"/>
+      <c r="DB71" s="1"/>
+      <c r="DC71" s="1"/>
+      <c r="DD71" s="1"/>
+      <c r="DE71" s="1"/>
+      <c r="DF71" s="1"/>
+      <c r="DG71" s="1"/>
+      <c r="DH71" s="1"/>
+      <c r="DI71" s="1"/>
+      <c r="DJ71" s="1"/>
+      <c r="DK71" s="1"/>
+      <c r="DL71" s="1"/>
+      <c r="DM71" s="1"/>
+      <c r="DN71" s="1"/>
+      <c r="DO71" s="1"/>
+      <c r="DP71" s="1"/>
+      <c r="DQ71" s="1"/>
+      <c r="DR71" s="1"/>
+      <c r="DS71" s="1"/>
+      <c r="DT71" s="1"/>
+      <c r="DU71" s="1"/>
+    </row>
+    <row r="72" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="148"/>
-      <c r="C72" s="148"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
       <c r="D72" s="74" t="s">
         <v>210</v>
       </c>
@@ -4191,11 +4472,127 @@
         <v>126</v>
       </c>
       <c r="I72" s="74"/>
-    </row>
-    <row r="73" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
+      <c r="CZ72" s="1"/>
+      <c r="DA72" s="1"/>
+      <c r="DB72" s="1"/>
+      <c r="DC72" s="1"/>
+      <c r="DD72" s="1"/>
+      <c r="DE72" s="1"/>
+      <c r="DF72" s="1"/>
+      <c r="DG72" s="1"/>
+      <c r="DH72" s="1"/>
+      <c r="DI72" s="1"/>
+      <c r="DJ72" s="1"/>
+      <c r="DK72" s="1"/>
+      <c r="DL72" s="1"/>
+      <c r="DM72" s="1"/>
+      <c r="DN72" s="1"/>
+      <c r="DO72" s="1"/>
+      <c r="DP72" s="1"/>
+      <c r="DQ72" s="1"/>
+      <c r="DR72" s="1"/>
+      <c r="DS72" s="1"/>
+      <c r="DT72" s="1"/>
+      <c r="DU72" s="1"/>
+    </row>
+    <row r="73" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
       <c r="D73" s="74" t="s">
         <v>211</v>
       </c>
@@ -4214,13 +4611,129 @@
       <c r="I73" s="74" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="1"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="1"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="1"/>
+      <c r="CT73" s="1"/>
+      <c r="CU73" s="1"/>
+      <c r="CV73" s="1"/>
+      <c r="CW73" s="1"/>
+      <c r="CX73" s="1"/>
+      <c r="CY73" s="1"/>
+      <c r="CZ73" s="1"/>
+      <c r="DA73" s="1"/>
+      <c r="DB73" s="1"/>
+      <c r="DC73" s="1"/>
+      <c r="DD73" s="1"/>
+      <c r="DE73" s="1"/>
+      <c r="DF73" s="1"/>
+      <c r="DG73" s="1"/>
+      <c r="DH73" s="1"/>
+      <c r="DI73" s="1"/>
+      <c r="DJ73" s="1"/>
+      <c r="DK73" s="1"/>
+      <c r="DL73" s="1"/>
+      <c r="DM73" s="1"/>
+      <c r="DN73" s="1"/>
+      <c r="DO73" s="1"/>
+      <c r="DP73" s="1"/>
+      <c r="DQ73" s="1"/>
+      <c r="DR73" s="1"/>
+      <c r="DS73" s="1"/>
+      <c r="DT73" s="1"/>
+      <c r="DU73" s="1"/>
+    </row>
+    <row r="74" spans="1:125" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E74" s="73" t="s">
         <v>319</v>
@@ -4233,51 +4746,399 @@
       </c>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
-    </row>
-    <row r="75" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
+      <c r="CX74" s="1"/>
+      <c r="CY74" s="1"/>
+      <c r="CZ74" s="1"/>
+      <c r="DA74" s="1"/>
+      <c r="DB74" s="1"/>
+      <c r="DC74" s="1"/>
+      <c r="DD74" s="1"/>
+      <c r="DE74" s="1"/>
+      <c r="DF74" s="1"/>
+      <c r="DG74" s="1"/>
+      <c r="DH74" s="1"/>
+      <c r="DI74" s="1"/>
+      <c r="DJ74" s="1"/>
+      <c r="DK74" s="1"/>
+      <c r="DL74" s="1"/>
+      <c r="DM74" s="1"/>
+      <c r="DN74" s="1"/>
+      <c r="DO74" s="1"/>
+      <c r="DP74" s="1"/>
+      <c r="DQ74" s="1"/>
+      <c r="DR74" s="1"/>
+      <c r="DS74" s="1"/>
+      <c r="DT74" s="1"/>
+      <c r="DU74" s="1"/>
+    </row>
+    <row r="75" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E75" s="73" t="s">
         <v>43</v>
       </c>
       <c r="F75" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="G75" s="75" t="s">
-        <v>327</v>
-      </c>
       <c r="H75" s="74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I75" s="74"/>
-    </row>
-    <row r="76" spans="1:14" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="1"/>
+      <c r="CV75" s="1"/>
+      <c r="CW75" s="1"/>
+      <c r="CX75" s="1"/>
+      <c r="CY75" s="1"/>
+      <c r="CZ75" s="1"/>
+      <c r="DA75" s="1"/>
+      <c r="DB75" s="1"/>
+      <c r="DC75" s="1"/>
+      <c r="DD75" s="1"/>
+      <c r="DE75" s="1"/>
+      <c r="DF75" s="1"/>
+      <c r="DG75" s="1"/>
+      <c r="DH75" s="1"/>
+      <c r="DI75" s="1"/>
+      <c r="DJ75" s="1"/>
+      <c r="DK75" s="1"/>
+      <c r="DL75" s="1"/>
+      <c r="DM75" s="1"/>
+      <c r="DN75" s="1"/>
+      <c r="DO75" s="1"/>
+      <c r="DP75" s="1"/>
+      <c r="DQ75" s="1"/>
+      <c r="DR75" s="1"/>
+      <c r="DS75" s="1"/>
+      <c r="DT75" s="1"/>
+      <c r="DU75" s="1"/>
+    </row>
+    <row r="76" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
+      <c r="B76" s="135"/>
+      <c r="C76" s="135"/>
       <c r="D76" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E76" s="73" t="s">
         <v>43</v>
       </c>
       <c r="F76" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="G76" s="75" t="s">
         <v>329</v>
-      </c>
-      <c r="G76" s="75" t="s">
-        <v>330</v>
       </c>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
-    </row>
-    <row r="77" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
+      <c r="CX76" s="1"/>
+      <c r="CY76" s="1"/>
+      <c r="CZ76" s="1"/>
+      <c r="DA76" s="1"/>
+      <c r="DB76" s="1"/>
+      <c r="DC76" s="1"/>
+      <c r="DD76" s="1"/>
+      <c r="DE76" s="1"/>
+      <c r="DF76" s="1"/>
+      <c r="DG76" s="1"/>
+      <c r="DH76" s="1"/>
+      <c r="DI76" s="1"/>
+      <c r="DJ76" s="1"/>
+      <c r="DK76" s="1"/>
+      <c r="DL76" s="1"/>
+      <c r="DM76" s="1"/>
+      <c r="DN76" s="1"/>
+      <c r="DO76" s="1"/>
+      <c r="DP76" s="1"/>
+      <c r="DQ76" s="1"/>
+      <c r="DR76" s="1"/>
+      <c r="DS76" s="1"/>
+      <c r="DT76" s="1"/>
+      <c r="DU76" s="1"/>
+    </row>
+    <row r="77" spans="1:125" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="74" t="s">
         <v>207</v>
       </c>
@@ -4285,20 +5146,136 @@
         <v>43</v>
       </c>
       <c r="F77" s="74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G77" s="75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
-    </row>
-    <row r="78" spans="1:14" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="1"/>
+      <c r="CV77" s="1"/>
+      <c r="CW77" s="1"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="1"/>
+      <c r="CZ77" s="1"/>
+      <c r="DA77" s="1"/>
+      <c r="DB77" s="1"/>
+      <c r="DC77" s="1"/>
+      <c r="DD77" s="1"/>
+      <c r="DE77" s="1"/>
+      <c r="DF77" s="1"/>
+      <c r="DG77" s="1"/>
+      <c r="DH77" s="1"/>
+      <c r="DI77" s="1"/>
+      <c r="DJ77" s="1"/>
+      <c r="DK77" s="1"/>
+      <c r="DL77" s="1"/>
+      <c r="DM77" s="1"/>
+      <c r="DN77" s="1"/>
+      <c r="DO77" s="1"/>
+      <c r="DP77" s="1"/>
+      <c r="DQ77" s="1"/>
+      <c r="DR77" s="1"/>
+      <c r="DS77" s="1"/>
+      <c r="DT77" s="1"/>
+      <c r="DU77" s="1"/>
+    </row>
+    <row r="78" spans="1:125" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="149"/>
-      <c r="C78" s="149"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E78" s="73" t="s">
         <v>319</v>
@@ -4307,60 +5284,408 @@
         <v>310</v>
       </c>
       <c r="G78" s="75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
-    </row>
-    <row r="79" spans="1:14" s="84" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
+      <c r="CV78" s="1"/>
+      <c r="CW78" s="1"/>
+      <c r="CX78" s="1"/>
+      <c r="CY78" s="1"/>
+      <c r="CZ78" s="1"/>
+      <c r="DA78" s="1"/>
+      <c r="DB78" s="1"/>
+      <c r="DC78" s="1"/>
+      <c r="DD78" s="1"/>
+      <c r="DE78" s="1"/>
+      <c r="DF78" s="1"/>
+      <c r="DG78" s="1"/>
+      <c r="DH78" s="1"/>
+      <c r="DI78" s="1"/>
+      <c r="DJ78" s="1"/>
+      <c r="DK78" s="1"/>
+      <c r="DL78" s="1"/>
+      <c r="DM78" s="1"/>
+      <c r="DN78" s="1"/>
+      <c r="DO78" s="1"/>
+      <c r="DP78" s="1"/>
+      <c r="DQ78" s="1"/>
+      <c r="DR78" s="1"/>
+      <c r="DS78" s="1"/>
+      <c r="DT78" s="1"/>
+      <c r="DU78" s="1"/>
+    </row>
+    <row r="79" spans="1:125" s="76" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="E79" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="1"/>
+      <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="1"/>
+      <c r="CZ79" s="1"/>
+      <c r="DA79" s="1"/>
+      <c r="DB79" s="1"/>
+      <c r="DC79" s="1"/>
+      <c r="DD79" s="1"/>
+      <c r="DE79" s="1"/>
+      <c r="DF79" s="1"/>
+      <c r="DG79" s="1"/>
+      <c r="DH79" s="1"/>
+      <c r="DI79" s="1"/>
+      <c r="DJ79" s="1"/>
+      <c r="DK79" s="1"/>
+      <c r="DL79" s="1"/>
+      <c r="DM79" s="1"/>
+      <c r="DN79" s="1"/>
+      <c r="DO79" s="1"/>
+      <c r="DP79" s="1"/>
+      <c r="DQ79" s="1"/>
+      <c r="DR79" s="1"/>
+      <c r="DS79" s="1"/>
+      <c r="DT79" s="1"/>
+      <c r="DU79" s="1"/>
+    </row>
+    <row r="80" spans="1:125" s="84" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D80" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="E80" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="G80" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D79" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="E79" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="F79" s="82" t="s">
+      <c r="H80" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="G79" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="H79" s="83" t="s">
-        <v>339</v>
-      </c>
-      <c r="I79" s="82"/>
-    </row>
-    <row r="80" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="F80" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="G80" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="H80" s="83"/>
       <c r="I80" s="82"/>
-    </row>
-    <row r="81" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B81" s="108" t="s">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="1"/>
+      <c r="CZ80" s="1"/>
+      <c r="DA80" s="1"/>
+      <c r="DB80" s="1"/>
+      <c r="DC80" s="1"/>
+      <c r="DD80" s="1"/>
+      <c r="DE80" s="1"/>
+      <c r="DF80" s="1"/>
+      <c r="DG80" s="1"/>
+      <c r="DH80" s="1"/>
+      <c r="DI80" s="1"/>
+      <c r="DJ80" s="1"/>
+      <c r="DK80" s="1"/>
+      <c r="DL80" s="1"/>
+      <c r="DM80" s="1"/>
+      <c r="DN80" s="1"/>
+      <c r="DO80" s="1"/>
+      <c r="DP80" s="1"/>
+      <c r="DQ80" s="1"/>
+      <c r="DR80" s="1"/>
+      <c r="DS80" s="1"/>
+      <c r="DT80" s="1"/>
+      <c r="DU80" s="1"/>
+    </row>
+    <row r="81" spans="1:125" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="C81" s="108" t="s">
+      <c r="C81" s="158" t="s">
         <v>268</v>
       </c>
       <c r="D81" s="37" t="s">
@@ -4382,9 +5707,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
+    <row r="82" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B82" s="158"/>
+      <c r="C82" s="158"/>
       <c r="D82" s="37" t="s">
         <v>214</v>
       </c>
@@ -4400,9 +5725,9 @@
       <c r="H82" s="39"/>
       <c r="I82" s="37"/>
     </row>
-    <row r="83" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
+    <row r="83" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B83" s="158"/>
+      <c r="C83" s="158"/>
       <c r="D83" s="37" t="s">
         <v>215</v>
       </c>
@@ -4418,11 +5743,11 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="96" t="s">
+    <row r="84" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="B84" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="96" t="s">
+      <c r="C84" s="137" t="s">
         <v>131</v>
       </c>
       <c r="D84" s="23" t="s">
@@ -4440,39 +5765,39 @@
       <c r="H84" s="24"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="113" t="s">
+    <row r="85" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="E85" s="96" t="s">
+      <c r="E85" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="113" t="s">
+      <c r="F85" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="G85" s="116" t="s">
+      <c r="G85" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="H85" s="159"/>
-      <c r="I85" s="96"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="104"/>
-    </row>
-    <row r="87" spans="1:14" ht="99" x14ac:dyDescent="0.3">
-      <c r="B87" s="110" t="s">
+      <c r="H85" s="141"/>
+      <c r="I85" s="137"/>
+    </row>
+    <row r="86" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="B86" s="138"/>
+      <c r="C86" s="138"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="138"/>
+    </row>
+    <row r="87" spans="1:125" ht="99" x14ac:dyDescent="0.3">
+      <c r="B87" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="110" t="s">
+      <c r="C87" s="159" t="s">
         <v>228</v>
       </c>
       <c r="D87" s="54" t="s">
@@ -4492,9 +5817,9 @@
       </c>
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B88" s="111"/>
-      <c r="C88" s="111"/>
+    <row r="88" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B88" s="160"/>
+      <c r="C88" s="160"/>
       <c r="D88" s="54" t="s">
         <v>239</v>
       </c>
@@ -4510,9 +5835,9 @@
       <c r="H88" s="55"/>
       <c r="I88" s="54"/>
     </row>
-    <row r="89" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="B89" s="112"/>
-      <c r="C89" s="112"/>
+    <row r="89" spans="1:125" ht="33" x14ac:dyDescent="0.3">
+      <c r="B89" s="161"/>
+      <c r="C89" s="161"/>
       <c r="D89" s="54" t="s">
         <v>260</v>
       </c>
@@ -4528,12 +5853,12 @@
       <c r="H89" s="55"/>
       <c r="I89" s="54"/>
     </row>
-    <row r="90" spans="1:14" s="84" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:125" s="84" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="87" t="s">
+      <c r="B90" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="146" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="82" t="s">
@@ -4552,11 +5877,127 @@
         <v>242</v>
       </c>
       <c r="I90" s="82"/>
-    </row>
-    <row r="91" spans="1:14" s="84" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
+      <c r="CV90" s="1"/>
+      <c r="CW90" s="1"/>
+      <c r="CX90" s="1"/>
+      <c r="CY90" s="1"/>
+      <c r="CZ90" s="1"/>
+      <c r="DA90" s="1"/>
+      <c r="DB90" s="1"/>
+      <c r="DC90" s="1"/>
+      <c r="DD90" s="1"/>
+      <c r="DE90" s="1"/>
+      <c r="DF90" s="1"/>
+      <c r="DG90" s="1"/>
+      <c r="DH90" s="1"/>
+      <c r="DI90" s="1"/>
+      <c r="DJ90" s="1"/>
+      <c r="DK90" s="1"/>
+      <c r="DL90" s="1"/>
+      <c r="DM90" s="1"/>
+      <c r="DN90" s="1"/>
+      <c r="DO90" s="1"/>
+      <c r="DP90" s="1"/>
+      <c r="DQ90" s="1"/>
+      <c r="DR90" s="1"/>
+      <c r="DS90" s="1"/>
+      <c r="DT90" s="1"/>
+      <c r="DU90" s="1"/>
+    </row>
+    <row r="91" spans="1:125" s="84" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
+      <c r="B91" s="147"/>
+      <c r="C91" s="147"/>
       <c r="D91" s="82" t="s">
         <v>251</v>
       </c>
@@ -4571,11 +6012,127 @@
       </c>
       <c r="H91" s="83"/>
       <c r="I91" s="82"/>
-    </row>
-    <row r="92" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="1"/>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+      <c r="CU91" s="1"/>
+      <c r="CV91" s="1"/>
+      <c r="CW91" s="1"/>
+      <c r="CX91" s="1"/>
+      <c r="CY91" s="1"/>
+      <c r="CZ91" s="1"/>
+      <c r="DA91" s="1"/>
+      <c r="DB91" s="1"/>
+      <c r="DC91" s="1"/>
+      <c r="DD91" s="1"/>
+      <c r="DE91" s="1"/>
+      <c r="DF91" s="1"/>
+      <c r="DG91" s="1"/>
+      <c r="DH91" s="1"/>
+      <c r="DI91" s="1"/>
+      <c r="DJ91" s="1"/>
+      <c r="DK91" s="1"/>
+      <c r="DL91" s="1"/>
+      <c r="DM91" s="1"/>
+      <c r="DN91" s="1"/>
+      <c r="DO91" s="1"/>
+      <c r="DP91" s="1"/>
+      <c r="DQ91" s="1"/>
+      <c r="DR91" s="1"/>
+      <c r="DS91" s="1"/>
+      <c r="DT91" s="1"/>
+      <c r="DU91" s="1"/>
+    </row>
+    <row r="92" spans="1:125" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
+      <c r="B92" s="147"/>
+      <c r="C92" s="147"/>
       <c r="D92" s="82" t="s">
         <v>252</v>
       </c>
@@ -4590,11 +6147,127 @@
       </c>
       <c r="H92" s="83"/>
       <c r="I92" s="82"/>
-    </row>
-    <row r="93" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="1"/>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+      <c r="CU92" s="1"/>
+      <c r="CV92" s="1"/>
+      <c r="CW92" s="1"/>
+      <c r="CX92" s="1"/>
+      <c r="CY92" s="1"/>
+      <c r="CZ92" s="1"/>
+      <c r="DA92" s="1"/>
+      <c r="DB92" s="1"/>
+      <c r="DC92" s="1"/>
+      <c r="DD92" s="1"/>
+      <c r="DE92" s="1"/>
+      <c r="DF92" s="1"/>
+      <c r="DG92" s="1"/>
+      <c r="DH92" s="1"/>
+      <c r="DI92" s="1"/>
+      <c r="DJ92" s="1"/>
+      <c r="DK92" s="1"/>
+      <c r="DL92" s="1"/>
+      <c r="DM92" s="1"/>
+      <c r="DN92" s="1"/>
+      <c r="DO92" s="1"/>
+      <c r="DP92" s="1"/>
+      <c r="DQ92" s="1"/>
+      <c r="DR92" s="1"/>
+      <c r="DS92" s="1"/>
+      <c r="DT92" s="1"/>
+      <c r="DU92" s="1"/>
+    </row>
+    <row r="93" spans="1:125" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
+      <c r="B93" s="147"/>
+      <c r="C93" s="147"/>
       <c r="D93" s="82" t="s">
         <v>253</v>
       </c>
@@ -4609,31 +6282,264 @@
       </c>
       <c r="H93" s="83"/>
       <c r="I93" s="82"/>
-    </row>
-    <row r="94" spans="1:14" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="1"/>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1"/>
+      <c r="CX93" s="1"/>
+      <c r="CY93" s="1"/>
+      <c r="CZ93" s="1"/>
+      <c r="DA93" s="1"/>
+      <c r="DB93" s="1"/>
+      <c r="DC93" s="1"/>
+      <c r="DD93" s="1"/>
+      <c r="DE93" s="1"/>
+      <c r="DF93" s="1"/>
+      <c r="DG93" s="1"/>
+      <c r="DH93" s="1"/>
+      <c r="DI93" s="1"/>
+      <c r="DJ93" s="1"/>
+      <c r="DK93" s="1"/>
+      <c r="DL93" s="1"/>
+      <c r="DM93" s="1"/>
+      <c r="DN93" s="1"/>
+      <c r="DO93" s="1"/>
+      <c r="DP93" s="1"/>
+      <c r="DQ93" s="1"/>
+      <c r="DR93" s="1"/>
+      <c r="DS93" s="1"/>
+      <c r="DT93" s="1"/>
+      <c r="DU93" s="1"/>
+    </row>
+    <row r="94" spans="1:125" s="84" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
+      <c r="B94" s="147"/>
+      <c r="C94" s="147"/>
       <c r="D94" s="82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E94" s="64" t="s">
         <v>254</v>
       </c>
       <c r="F94" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="G94" s="83" t="s">
         <v>367</v>
-      </c>
-      <c r="G94" s="83" t="s">
-        <v>368</v>
       </c>
       <c r="H94" s="83"/>
       <c r="I94" s="82"/>
-    </row>
-    <row r="95" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="1"/>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
+      <c r="CV94" s="1"/>
+      <c r="CW94" s="1"/>
+      <c r="CX94" s="1"/>
+      <c r="CY94" s="1"/>
+      <c r="CZ94" s="1"/>
+      <c r="DA94" s="1"/>
+      <c r="DB94" s="1"/>
+      <c r="DC94" s="1"/>
+      <c r="DD94" s="1"/>
+      <c r="DE94" s="1"/>
+      <c r="DF94" s="1"/>
+      <c r="DG94" s="1"/>
+      <c r="DH94" s="1"/>
+      <c r="DI94" s="1"/>
+      <c r="DJ94" s="1"/>
+      <c r="DK94" s="1"/>
+      <c r="DL94" s="1"/>
+      <c r="DM94" s="1"/>
+      <c r="DN94" s="1"/>
+      <c r="DO94" s="1"/>
+      <c r="DP94" s="1"/>
+      <c r="DQ94" s="1"/>
+      <c r="DR94" s="1"/>
+      <c r="DS94" s="1"/>
+      <c r="DT94" s="1"/>
+      <c r="DU94" s="1"/>
+    </row>
+    <row r="95" spans="1:125" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="147"/>
+      <c r="C95" s="147"/>
       <c r="D95" s="82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E95" s="64" t="s">
         <v>254</v>
@@ -4642,400 +6548,3680 @@
         <v>109</v>
       </c>
       <c r="G95" s="83" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H95" s="83"/>
       <c r="I95" s="82"/>
-      <c r="N95" s="86"/>
-    </row>
-    <row r="96" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="88"/>
-      <c r="C96" s="88"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="1"/>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1"/>
+      <c r="CX95" s="1"/>
+      <c r="CY95" s="1"/>
+      <c r="CZ95" s="1"/>
+      <c r="DA95" s="1"/>
+      <c r="DB95" s="1"/>
+      <c r="DC95" s="1"/>
+      <c r="DD95" s="1"/>
+      <c r="DE95" s="1"/>
+      <c r="DF95" s="1"/>
+      <c r="DG95" s="1"/>
+      <c r="DH95" s="1"/>
+      <c r="DI95" s="1"/>
+      <c r="DJ95" s="1"/>
+      <c r="DK95" s="1"/>
+      <c r="DL95" s="1"/>
+      <c r="DM95" s="1"/>
+      <c r="DN95" s="1"/>
+      <c r="DO95" s="1"/>
+      <c r="DP95" s="1"/>
+      <c r="DQ95" s="1"/>
+      <c r="DR95" s="1"/>
+      <c r="DS95" s="1"/>
+      <c r="DT95" s="1"/>
+      <c r="DU95" s="1"/>
+    </row>
+    <row r="96" spans="1:125" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
       <c r="D96" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="E96" s="85"/>
+        <v>360</v>
+      </c>
+      <c r="E96" s="87" t="s">
+        <v>254</v>
+      </c>
       <c r="F96" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="G96" s="83" t="s">
         <v>359</v>
-      </c>
-      <c r="G96" s="83" t="s">
-        <v>360</v>
       </c>
       <c r="H96" s="83"/>
       <c r="I96" s="82"/>
-      <c r="N96" s="86"/>
-    </row>
-    <row r="97" spans="1:9" s="76" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="1"/>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="1"/>
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
+      <c r="CC96" s="1"/>
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="1"/>
+      <c r="CF96" s="1"/>
+      <c r="CG96" s="1"/>
+      <c r="CH96" s="1"/>
+      <c r="CI96" s="1"/>
+      <c r="CJ96" s="1"/>
+      <c r="CK96" s="1"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
+      <c r="CT96" s="1"/>
+      <c r="CU96" s="1"/>
+      <c r="CV96" s="1"/>
+      <c r="CW96" s="1"/>
+      <c r="CX96" s="1"/>
+      <c r="CY96" s="1"/>
+      <c r="CZ96" s="1"/>
+      <c r="DA96" s="1"/>
+      <c r="DB96" s="1"/>
+      <c r="DC96" s="1"/>
+      <c r="DD96" s="1"/>
+      <c r="DE96" s="1"/>
+      <c r="DF96" s="1"/>
+      <c r="DG96" s="1"/>
+      <c r="DH96" s="1"/>
+      <c r="DI96" s="1"/>
+      <c r="DJ96" s="1"/>
+      <c r="DK96" s="1"/>
+      <c r="DL96" s="1"/>
+      <c r="DM96" s="1"/>
+      <c r="DN96" s="1"/>
+      <c r="DO96" s="1"/>
+      <c r="DP96" s="1"/>
+      <c r="DQ96" s="1"/>
+      <c r="DR96" s="1"/>
+      <c r="DS96" s="1"/>
+      <c r="DT96" s="1"/>
+      <c r="DU96" s="1"/>
+    </row>
+    <row r="97" spans="1:125" s="76" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="73" t="s">
+      <c r="B97" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="D97" s="73" t="s">
-        <v>363</v>
+      <c r="D97" s="170" t="s">
+        <v>362</v>
       </c>
       <c r="E97" s="73" t="s">
         <v>254</v>
       </c>
       <c r="F97" s="74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G97" s="75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H97" s="75"/>
       <c r="I97" s="74"/>
-    </row>
-    <row r="98" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="1"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="1"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="1"/>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1"/>
+      <c r="CX97" s="1"/>
+      <c r="CY97" s="1"/>
+      <c r="CZ97" s="1"/>
+      <c r="DA97" s="1"/>
+      <c r="DB97" s="1"/>
+      <c r="DC97" s="1"/>
+      <c r="DD97" s="1"/>
+      <c r="DE97" s="1"/>
+      <c r="DF97" s="1"/>
+      <c r="DG97" s="1"/>
+      <c r="DH97" s="1"/>
+      <c r="DI97" s="1"/>
+      <c r="DJ97" s="1"/>
+      <c r="DK97" s="1"/>
+      <c r="DL97" s="1"/>
+      <c r="DM97" s="1"/>
+      <c r="DN97" s="1"/>
+      <c r="DO97" s="1"/>
+      <c r="DP97" s="1"/>
+      <c r="DQ97" s="1"/>
+      <c r="DR97" s="1"/>
+      <c r="DS97" s="1"/>
+      <c r="DT97" s="1"/>
+      <c r="DU97" s="1"/>
+    </row>
+    <row r="98" spans="1:125" s="76" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
+      <c r="B98" s="135"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="170" t="s">
+        <v>372</v>
+      </c>
+      <c r="E98" s="73" t="s">
+        <v>254</v>
+      </c>
       <c r="F98" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="G98" s="75"/>
+        <v>364</v>
+      </c>
+      <c r="G98" s="75" t="s">
+        <v>369</v>
+      </c>
       <c r="H98" s="75"/>
       <c r="I98" s="74"/>
-    </row>
-    <row r="99" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="1"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1"/>
+      <c r="CX98" s="1"/>
+      <c r="CY98" s="1"/>
+      <c r="CZ98" s="1"/>
+      <c r="DA98" s="1"/>
+      <c r="DB98" s="1"/>
+      <c r="DC98" s="1"/>
+      <c r="DD98" s="1"/>
+      <c r="DE98" s="1"/>
+      <c r="DF98" s="1"/>
+      <c r="DG98" s="1"/>
+      <c r="DH98" s="1"/>
+      <c r="DI98" s="1"/>
+      <c r="DJ98" s="1"/>
+      <c r="DK98" s="1"/>
+      <c r="DL98" s="1"/>
+      <c r="DM98" s="1"/>
+      <c r="DN98" s="1"/>
+      <c r="DO98" s="1"/>
+      <c r="DP98" s="1"/>
+      <c r="DQ98" s="1"/>
+      <c r="DR98" s="1"/>
+      <c r="DS98" s="1"/>
+      <c r="DT98" s="1"/>
+      <c r="DU98" s="1"/>
+    </row>
+    <row r="99" spans="1:125" s="76" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="73"/>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="75"/>
+      <c r="B99" s="135"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="G99" s="75" t="s">
+        <v>371</v>
+      </c>
       <c r="H99" s="75"/>
       <c r="I99" s="74"/>
-    </row>
-    <row r="100" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="1"/>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1"/>
+      <c r="CX99" s="1"/>
+      <c r="CY99" s="1"/>
+      <c r="CZ99" s="1"/>
+      <c r="DA99" s="1"/>
+      <c r="DB99" s="1"/>
+      <c r="DC99" s="1"/>
+      <c r="DD99" s="1"/>
+      <c r="DE99" s="1"/>
+      <c r="DF99" s="1"/>
+      <c r="DG99" s="1"/>
+      <c r="DH99" s="1"/>
+      <c r="DI99" s="1"/>
+      <c r="DJ99" s="1"/>
+      <c r="DK99" s="1"/>
+      <c r="DL99" s="1"/>
+      <c r="DM99" s="1"/>
+      <c r="DN99" s="1"/>
+      <c r="DO99" s="1"/>
+      <c r="DP99" s="1"/>
+      <c r="DQ99" s="1"/>
+      <c r="DR99" s="1"/>
+      <c r="DS99" s="1"/>
+      <c r="DT99" s="1"/>
+      <c r="DU99" s="1"/>
+    </row>
+    <row r="100" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="75"/>
+      <c r="B100" s="135"/>
+      <c r="C100" s="135"/>
+      <c r="D100" s="170" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F100" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="G100" s="75" t="s">
+        <v>387</v>
+      </c>
       <c r="H100" s="75"/>
       <c r="I100" s="74"/>
-    </row>
-    <row r="101" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="1"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
+      <c r="BN100" s="1"/>
+      <c r="BO100" s="1"/>
+      <c r="BP100" s="1"/>
+      <c r="BQ100" s="1"/>
+      <c r="BR100" s="1"/>
+      <c r="BS100" s="1"/>
+      <c r="BT100" s="1"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="1"/>
+      <c r="BX100" s="1"/>
+      <c r="BY100" s="1"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CT100" s="1"/>
+      <c r="CU100" s="1"/>
+      <c r="CV100" s="1"/>
+      <c r="CW100" s="1"/>
+      <c r="CX100" s="1"/>
+      <c r="CY100" s="1"/>
+      <c r="CZ100" s="1"/>
+      <c r="DA100" s="1"/>
+      <c r="DB100" s="1"/>
+      <c r="DC100" s="1"/>
+      <c r="DD100" s="1"/>
+      <c r="DE100" s="1"/>
+      <c r="DF100" s="1"/>
+      <c r="DG100" s="1"/>
+      <c r="DH100" s="1"/>
+      <c r="DI100" s="1"/>
+      <c r="DJ100" s="1"/>
+      <c r="DK100" s="1"/>
+      <c r="DL100" s="1"/>
+      <c r="DM100" s="1"/>
+      <c r="DN100" s="1"/>
+      <c r="DO100" s="1"/>
+      <c r="DP100" s="1"/>
+      <c r="DQ100" s="1"/>
+      <c r="DR100" s="1"/>
+      <c r="DS100" s="1"/>
+      <c r="DT100" s="1"/>
+      <c r="DU100" s="1"/>
+    </row>
+    <row r="101" spans="1:125" s="76" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="109" t="s">
+      <c r="B101" s="136"/>
+      <c r="C101" s="136"/>
+      <c r="D101" s="170" t="s">
+        <v>385</v>
+      </c>
+      <c r="E101" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="G101" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="H101" s="75"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="1"/>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="1"/>
+      <c r="BE101" s="1"/>
+      <c r="BF101" s="1"/>
+      <c r="BG101" s="1"/>
+      <c r="BH101" s="1"/>
+      <c r="BI101" s="1"/>
+      <c r="BJ101" s="1"/>
+      <c r="BK101" s="1"/>
+      <c r="BL101" s="1"/>
+      <c r="BM101" s="1"/>
+      <c r="BN101" s="1"/>
+      <c r="BO101" s="1"/>
+      <c r="BP101" s="1"/>
+      <c r="BQ101" s="1"/>
+      <c r="BR101" s="1"/>
+      <c r="BS101" s="1"/>
+      <c r="BT101" s="1"/>
+      <c r="BU101" s="1"/>
+      <c r="BV101" s="1"/>
+      <c r="BW101" s="1"/>
+      <c r="BX101" s="1"/>
+      <c r="BY101" s="1"/>
+      <c r="BZ101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CB101" s="1"/>
+      <c r="CC101" s="1"/>
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="1"/>
+      <c r="CF101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CH101" s="1"/>
+      <c r="CI101" s="1"/>
+      <c r="CJ101" s="1"/>
+      <c r="CK101" s="1"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
+      <c r="CT101" s="1"/>
+      <c r="CU101" s="1"/>
+      <c r="CV101" s="1"/>
+      <c r="CW101" s="1"/>
+      <c r="CX101" s="1"/>
+      <c r="CY101" s="1"/>
+      <c r="CZ101" s="1"/>
+      <c r="DA101" s="1"/>
+      <c r="DB101" s="1"/>
+      <c r="DC101" s="1"/>
+      <c r="DD101" s="1"/>
+      <c r="DE101" s="1"/>
+      <c r="DF101" s="1"/>
+      <c r="DG101" s="1"/>
+      <c r="DH101" s="1"/>
+      <c r="DI101" s="1"/>
+      <c r="DJ101" s="1"/>
+      <c r="DK101" s="1"/>
+      <c r="DL101" s="1"/>
+      <c r="DM101" s="1"/>
+      <c r="DN101" s="1"/>
+      <c r="DO101" s="1"/>
+      <c r="DP101" s="1"/>
+      <c r="DQ101" s="1"/>
+      <c r="DR101" s="1"/>
+      <c r="DS101" s="1"/>
+      <c r="DT101" s="1"/>
+      <c r="DU101" s="1"/>
+    </row>
+    <row r="102" spans="1:125" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="109" t="s">
+      <c r="C102" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="D101" s="78" t="s">
+      <c r="D102" s="78" t="s">
         <v>219</v>
-      </c>
-      <c r="E101" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F101" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="H101" s="80"/>
-      <c r="I101" s="78"/>
-    </row>
-    <row r="102" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="78" t="s">
-        <v>220</v>
       </c>
       <c r="E102" s="79" t="s">
         <v>169</v>
       </c>
       <c r="F102" s="78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G102" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H102" s="80"/>
       <c r="I102" s="78"/>
-    </row>
-    <row r="103" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="1"/>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="1"/>
+      <c r="BE102" s="1"/>
+      <c r="BF102" s="1"/>
+      <c r="BG102" s="1"/>
+      <c r="BH102" s="1"/>
+      <c r="BI102" s="1"/>
+      <c r="BJ102" s="1"/>
+      <c r="BK102" s="1"/>
+      <c r="BL102" s="1"/>
+      <c r="BM102" s="1"/>
+      <c r="BN102" s="1"/>
+      <c r="BO102" s="1"/>
+      <c r="BP102" s="1"/>
+      <c r="BQ102" s="1"/>
+      <c r="BR102" s="1"/>
+      <c r="BS102" s="1"/>
+      <c r="BT102" s="1"/>
+      <c r="BU102" s="1"/>
+      <c r="BV102" s="1"/>
+      <c r="BW102" s="1"/>
+      <c r="BX102" s="1"/>
+      <c r="BY102" s="1"/>
+      <c r="BZ102" s="1"/>
+      <c r="CA102" s="1"/>
+      <c r="CB102" s="1"/>
+      <c r="CC102" s="1"/>
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="1"/>
+      <c r="CF102" s="1"/>
+      <c r="CG102" s="1"/>
+      <c r="CH102" s="1"/>
+      <c r="CI102" s="1"/>
+      <c r="CJ102" s="1"/>
+      <c r="CK102" s="1"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
+      <c r="CT102" s="1"/>
+      <c r="CU102" s="1"/>
+      <c r="CV102" s="1"/>
+      <c r="CW102" s="1"/>
+      <c r="CX102" s="1"/>
+      <c r="CY102" s="1"/>
+      <c r="CZ102" s="1"/>
+      <c r="DA102" s="1"/>
+      <c r="DB102" s="1"/>
+      <c r="DC102" s="1"/>
+      <c r="DD102" s="1"/>
+      <c r="DE102" s="1"/>
+      <c r="DF102" s="1"/>
+      <c r="DG102" s="1"/>
+      <c r="DH102" s="1"/>
+      <c r="DI102" s="1"/>
+      <c r="DJ102" s="1"/>
+      <c r="DK102" s="1"/>
+      <c r="DL102" s="1"/>
+      <c r="DM102" s="1"/>
+      <c r="DN102" s="1"/>
+      <c r="DO102" s="1"/>
+      <c r="DP102" s="1"/>
+      <c r="DQ102" s="1"/>
+      <c r="DR102" s="1"/>
+      <c r="DS102" s="1"/>
+      <c r="DT102" s="1"/>
+      <c r="DU102" s="1"/>
+    </row>
+    <row r="103" spans="1:125" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
+      <c r="B103" s="172"/>
+      <c r="C103" s="172"/>
       <c r="D103" s="78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" s="79" t="s">
         <v>169</v>
       </c>
       <c r="F103" s="78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G103" s="80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H103" s="80"/>
       <c r="I103" s="78"/>
-    </row>
-    <row r="104" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="1"/>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="1"/>
+      <c r="BE103" s="1"/>
+      <c r="BF103" s="1"/>
+      <c r="BG103" s="1"/>
+      <c r="BH103" s="1"/>
+      <c r="BI103" s="1"/>
+      <c r="BJ103" s="1"/>
+      <c r="BK103" s="1"/>
+      <c r="BL103" s="1"/>
+      <c r="BM103" s="1"/>
+      <c r="BN103" s="1"/>
+      <c r="BO103" s="1"/>
+      <c r="BP103" s="1"/>
+      <c r="BQ103" s="1"/>
+      <c r="BR103" s="1"/>
+      <c r="BS103" s="1"/>
+      <c r="BT103" s="1"/>
+      <c r="BU103" s="1"/>
+      <c r="BV103" s="1"/>
+      <c r="BW103" s="1"/>
+      <c r="BX103" s="1"/>
+      <c r="BY103" s="1"/>
+      <c r="BZ103" s="1"/>
+      <c r="CA103" s="1"/>
+      <c r="CB103" s="1"/>
+      <c r="CC103" s="1"/>
+      <c r="CD103" s="1"/>
+      <c r="CE103" s="1"/>
+      <c r="CF103" s="1"/>
+      <c r="CG103" s="1"/>
+      <c r="CH103" s="1"/>
+      <c r="CI103" s="1"/>
+      <c r="CJ103" s="1"/>
+      <c r="CK103" s="1"/>
+      <c r="CL103" s="1"/>
+      <c r="CM103" s="1"/>
+      <c r="CN103" s="1"/>
+      <c r="CO103" s="1"/>
+      <c r="CP103" s="1"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="1"/>
+      <c r="CS103" s="1"/>
+      <c r="CT103" s="1"/>
+      <c r="CU103" s="1"/>
+      <c r="CV103" s="1"/>
+      <c r="CW103" s="1"/>
+      <c r="CX103" s="1"/>
+      <c r="CY103" s="1"/>
+      <c r="CZ103" s="1"/>
+      <c r="DA103" s="1"/>
+      <c r="DB103" s="1"/>
+      <c r="DC103" s="1"/>
+      <c r="DD103" s="1"/>
+      <c r="DE103" s="1"/>
+      <c r="DF103" s="1"/>
+      <c r="DG103" s="1"/>
+      <c r="DH103" s="1"/>
+      <c r="DI103" s="1"/>
+      <c r="DJ103" s="1"/>
+      <c r="DK103" s="1"/>
+      <c r="DL103" s="1"/>
+      <c r="DM103" s="1"/>
+      <c r="DN103" s="1"/>
+      <c r="DO103" s="1"/>
+      <c r="DP103" s="1"/>
+      <c r="DQ103" s="1"/>
+      <c r="DR103" s="1"/>
+      <c r="DS103" s="1"/>
+      <c r="DT103" s="1"/>
+      <c r="DU103" s="1"/>
+    </row>
+    <row r="104" spans="1:125" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
+      <c r="B104" s="172"/>
+      <c r="C104" s="172"/>
       <c r="D104" s="78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="79" t="s">
         <v>169</v>
       </c>
       <c r="F104" s="78" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G104" s="80" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H104" s="80"/>
       <c r="I104" s="78"/>
-    </row>
-    <row r="105" spans="1:9" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="1"/>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BD104" s="1"/>
+      <c r="BE104" s="1"/>
+      <c r="BF104" s="1"/>
+      <c r="BG104" s="1"/>
+      <c r="BH104" s="1"/>
+      <c r="BI104" s="1"/>
+      <c r="BJ104" s="1"/>
+      <c r="BK104" s="1"/>
+      <c r="BL104" s="1"/>
+      <c r="BM104" s="1"/>
+      <c r="BN104" s="1"/>
+      <c r="BO104" s="1"/>
+      <c r="BP104" s="1"/>
+      <c r="BQ104" s="1"/>
+      <c r="BR104" s="1"/>
+      <c r="BS104" s="1"/>
+      <c r="BT104" s="1"/>
+      <c r="BU104" s="1"/>
+      <c r="BV104" s="1"/>
+      <c r="BW104" s="1"/>
+      <c r="BX104" s="1"/>
+      <c r="BY104" s="1"/>
+      <c r="BZ104" s="1"/>
+      <c r="CA104" s="1"/>
+      <c r="CB104" s="1"/>
+      <c r="CC104" s="1"/>
+      <c r="CD104" s="1"/>
+      <c r="CE104" s="1"/>
+      <c r="CF104" s="1"/>
+      <c r="CG104" s="1"/>
+      <c r="CH104" s="1"/>
+      <c r="CI104" s="1"/>
+      <c r="CJ104" s="1"/>
+      <c r="CK104" s="1"/>
+      <c r="CL104" s="1"/>
+      <c r="CM104" s="1"/>
+      <c r="CN104" s="1"/>
+      <c r="CO104" s="1"/>
+      <c r="CP104" s="1"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="1"/>
+      <c r="CS104" s="1"/>
+      <c r="CT104" s="1"/>
+      <c r="CU104" s="1"/>
+      <c r="CV104" s="1"/>
+      <c r="CW104" s="1"/>
+      <c r="CX104" s="1"/>
+      <c r="CY104" s="1"/>
+      <c r="CZ104" s="1"/>
+      <c r="DA104" s="1"/>
+      <c r="DB104" s="1"/>
+      <c r="DC104" s="1"/>
+      <c r="DD104" s="1"/>
+      <c r="DE104" s="1"/>
+      <c r="DF104" s="1"/>
+      <c r="DG104" s="1"/>
+      <c r="DH104" s="1"/>
+      <c r="DI104" s="1"/>
+      <c r="DJ104" s="1"/>
+      <c r="DK104" s="1"/>
+      <c r="DL104" s="1"/>
+      <c r="DM104" s="1"/>
+      <c r="DN104" s="1"/>
+      <c r="DO104" s="1"/>
+      <c r="DP104" s="1"/>
+      <c r="DQ104" s="1"/>
+      <c r="DR104" s="1"/>
+      <c r="DS104" s="1"/>
+      <c r="DT104" s="1"/>
+      <c r="DU104" s="1"/>
+    </row>
+    <row r="105" spans="1:125" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
+      <c r="B105" s="172"/>
+      <c r="C105" s="172"/>
       <c r="D105" s="78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E105" s="79" t="s">
         <v>169</v>
       </c>
       <c r="F105" s="78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G105" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="H105" s="78"/>
+        <v>158</v>
+      </c>
+      <c r="H105" s="80"/>
       <c r="I105" s="78"/>
-    </row>
-    <row r="106" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1"/>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="1"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1"/>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1"/>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="1"/>
+      <c r="BE105" s="1"/>
+      <c r="BF105" s="1"/>
+      <c r="BG105" s="1"/>
+      <c r="BH105" s="1"/>
+      <c r="BI105" s="1"/>
+      <c r="BJ105" s="1"/>
+      <c r="BK105" s="1"/>
+      <c r="BL105" s="1"/>
+      <c r="BM105" s="1"/>
+      <c r="BN105" s="1"/>
+      <c r="BO105" s="1"/>
+      <c r="BP105" s="1"/>
+      <c r="BQ105" s="1"/>
+      <c r="BR105" s="1"/>
+      <c r="BS105" s="1"/>
+      <c r="BT105" s="1"/>
+      <c r="BU105" s="1"/>
+      <c r="BV105" s="1"/>
+      <c r="BW105" s="1"/>
+      <c r="BX105" s="1"/>
+      <c r="BY105" s="1"/>
+      <c r="BZ105" s="1"/>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
+      <c r="CT105" s="1"/>
+      <c r="CU105" s="1"/>
+      <c r="CV105" s="1"/>
+      <c r="CW105" s="1"/>
+      <c r="CX105" s="1"/>
+      <c r="CY105" s="1"/>
+      <c r="CZ105" s="1"/>
+      <c r="DA105" s="1"/>
+      <c r="DB105" s="1"/>
+      <c r="DC105" s="1"/>
+      <c r="DD105" s="1"/>
+      <c r="DE105" s="1"/>
+      <c r="DF105" s="1"/>
+      <c r="DG105" s="1"/>
+      <c r="DH105" s="1"/>
+      <c r="DI105" s="1"/>
+      <c r="DJ105" s="1"/>
+      <c r="DK105" s="1"/>
+      <c r="DL105" s="1"/>
+      <c r="DM105" s="1"/>
+      <c r="DN105" s="1"/>
+      <c r="DO105" s="1"/>
+      <c r="DP105" s="1"/>
+      <c r="DQ105" s="1"/>
+      <c r="DR105" s="1"/>
+      <c r="DS105" s="1"/>
+      <c r="DT105" s="1"/>
+      <c r="DU105" s="1"/>
+    </row>
+    <row r="106" spans="1:125" s="81" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="109" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="D106" s="78"/>
+      <c r="B106" s="172"/>
+      <c r="C106" s="172"/>
+      <c r="D106" s="78" t="s">
+        <v>223</v>
+      </c>
       <c r="E106" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="F106" s="78"/>
-      <c r="G106" s="80"/>
-      <c r="H106" s="80"/>
+      <c r="F106" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G106" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H106" s="78"/>
       <c r="I106" s="78"/>
-    </row>
-    <row r="107" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1"/>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BM106" s="1"/>
+      <c r="BN106" s="1"/>
+      <c r="BO106" s="1"/>
+      <c r="BP106" s="1"/>
+      <c r="BQ106" s="1"/>
+      <c r="BR106" s="1"/>
+      <c r="BS106" s="1"/>
+      <c r="BT106" s="1"/>
+      <c r="BU106" s="1"/>
+      <c r="BV106" s="1"/>
+      <c r="BW106" s="1"/>
+      <c r="BX106" s="1"/>
+      <c r="BY106" s="1"/>
+      <c r="BZ106" s="1"/>
+      <c r="CA106" s="1"/>
+      <c r="CB106" s="1"/>
+      <c r="CC106" s="1"/>
+      <c r="CD106" s="1"/>
+      <c r="CE106" s="1"/>
+      <c r="CF106" s="1"/>
+      <c r="CG106" s="1"/>
+      <c r="CH106" s="1"/>
+      <c r="CI106" s="1"/>
+      <c r="CJ106" s="1"/>
+      <c r="CK106" s="1"/>
+      <c r="CL106" s="1"/>
+      <c r="CM106" s="1"/>
+      <c r="CN106" s="1"/>
+      <c r="CO106" s="1"/>
+      <c r="CP106" s="1"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="1"/>
+      <c r="CS106" s="1"/>
+      <c r="CT106" s="1"/>
+      <c r="CU106" s="1"/>
+      <c r="CV106" s="1"/>
+      <c r="CW106" s="1"/>
+      <c r="CX106" s="1"/>
+      <c r="CY106" s="1"/>
+      <c r="CZ106" s="1"/>
+      <c r="DA106" s="1"/>
+      <c r="DB106" s="1"/>
+      <c r="DC106" s="1"/>
+      <c r="DD106" s="1"/>
+      <c r="DE106" s="1"/>
+      <c r="DF106" s="1"/>
+      <c r="DG106" s="1"/>
+      <c r="DH106" s="1"/>
+      <c r="DI106" s="1"/>
+      <c r="DJ106" s="1"/>
+      <c r="DK106" s="1"/>
+      <c r="DL106" s="1"/>
+      <c r="DM106" s="1"/>
+      <c r="DN106" s="1"/>
+      <c r="DO106" s="1"/>
+      <c r="DP106" s="1"/>
+      <c r="DQ106" s="1"/>
+      <c r="DR106" s="1"/>
+      <c r="DS106" s="1"/>
+      <c r="DT106" s="1"/>
+      <c r="DU106" s="1"/>
+    </row>
+    <row r="107" spans="1:125" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="109"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F107" s="78"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="80"/>
+      <c r="B107" s="172"/>
+      <c r="C107" s="172"/>
+      <c r="D107" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="E107" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="G107" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="H107" s="78"/>
       <c r="I107" s="78"/>
-    </row>
-    <row r="108" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="1"/>
+      <c r="AO107" s="1"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+      <c r="AR107" s="1"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="1"/>
+      <c r="AU107" s="1"/>
+      <c r="AV107" s="1"/>
+      <c r="AW107" s="1"/>
+      <c r="AX107" s="1"/>
+      <c r="AY107" s="1"/>
+      <c r="AZ107" s="1"/>
+      <c r="BA107" s="1"/>
+      <c r="BB107" s="1"/>
+      <c r="BC107" s="1"/>
+      <c r="BD107" s="1"/>
+      <c r="BE107" s="1"/>
+      <c r="BF107" s="1"/>
+      <c r="BG107" s="1"/>
+      <c r="BH107" s="1"/>
+      <c r="BI107" s="1"/>
+      <c r="BJ107" s="1"/>
+      <c r="BK107" s="1"/>
+      <c r="BL107" s="1"/>
+      <c r="BM107" s="1"/>
+      <c r="BN107" s="1"/>
+      <c r="BO107" s="1"/>
+      <c r="BP107" s="1"/>
+      <c r="BQ107" s="1"/>
+      <c r="BR107" s="1"/>
+      <c r="BS107" s="1"/>
+      <c r="BT107" s="1"/>
+      <c r="BU107" s="1"/>
+      <c r="BV107" s="1"/>
+      <c r="BW107" s="1"/>
+      <c r="BX107" s="1"/>
+      <c r="BY107" s="1"/>
+      <c r="BZ107" s="1"/>
+      <c r="CA107" s="1"/>
+      <c r="CB107" s="1"/>
+      <c r="CC107" s="1"/>
+      <c r="CD107" s="1"/>
+      <c r="CE107" s="1"/>
+      <c r="CF107" s="1"/>
+      <c r="CG107" s="1"/>
+      <c r="CH107" s="1"/>
+      <c r="CI107" s="1"/>
+      <c r="CJ107" s="1"/>
+      <c r="CK107" s="1"/>
+      <c r="CL107" s="1"/>
+      <c r="CM107" s="1"/>
+      <c r="CN107" s="1"/>
+      <c r="CO107" s="1"/>
+      <c r="CP107" s="1"/>
+      <c r="CQ107" s="1"/>
+      <c r="CR107" s="1"/>
+      <c r="CS107" s="1"/>
+      <c r="CT107" s="1"/>
+      <c r="CU107" s="1"/>
+      <c r="CV107" s="1"/>
+      <c r="CW107" s="1"/>
+      <c r="CX107" s="1"/>
+      <c r="CY107" s="1"/>
+      <c r="CZ107" s="1"/>
+      <c r="DA107" s="1"/>
+      <c r="DB107" s="1"/>
+      <c r="DC107" s="1"/>
+      <c r="DD107" s="1"/>
+      <c r="DE107" s="1"/>
+      <c r="DF107" s="1"/>
+      <c r="DG107" s="1"/>
+      <c r="DH107" s="1"/>
+      <c r="DI107" s="1"/>
+      <c r="DJ107" s="1"/>
+      <c r="DK107" s="1"/>
+      <c r="DL107" s="1"/>
+      <c r="DM107" s="1"/>
+      <c r="DN107" s="1"/>
+      <c r="DO107" s="1"/>
+      <c r="DP107" s="1"/>
+      <c r="DQ107" s="1"/>
+      <c r="DR107" s="1"/>
+      <c r="DS107" s="1"/>
+      <c r="DT107" s="1"/>
+      <c r="DU107" s="1"/>
+    </row>
+    <row r="108" spans="1:125" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F108" s="78"/>
-      <c r="G108" s="80"/>
+      <c r="B108" s="172"/>
+      <c r="C108" s="172"/>
+      <c r="D108" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="E108" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" s="80" t="s">
+        <v>379</v>
+      </c>
       <c r="H108" s="78"/>
       <c r="I108" s="78"/>
-    </row>
-    <row r="109" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
+      <c r="BD108" s="1"/>
+      <c r="BE108" s="1"/>
+      <c r="BF108" s="1"/>
+      <c r="BG108" s="1"/>
+      <c r="BH108" s="1"/>
+      <c r="BI108" s="1"/>
+      <c r="BJ108" s="1"/>
+      <c r="BK108" s="1"/>
+      <c r="BL108" s="1"/>
+      <c r="BM108" s="1"/>
+      <c r="BN108" s="1"/>
+      <c r="BO108" s="1"/>
+      <c r="BP108" s="1"/>
+      <c r="BQ108" s="1"/>
+      <c r="BR108" s="1"/>
+      <c r="BS108" s="1"/>
+      <c r="BT108" s="1"/>
+      <c r="BU108" s="1"/>
+      <c r="BV108" s="1"/>
+      <c r="BW108" s="1"/>
+      <c r="BX108" s="1"/>
+      <c r="BY108" s="1"/>
+      <c r="BZ108" s="1"/>
+      <c r="CA108" s="1"/>
+      <c r="CB108" s="1"/>
+      <c r="CC108" s="1"/>
+      <c r="CD108" s="1"/>
+      <c r="CE108" s="1"/>
+      <c r="CF108" s="1"/>
+      <c r="CG108" s="1"/>
+      <c r="CH108" s="1"/>
+      <c r="CI108" s="1"/>
+      <c r="CJ108" s="1"/>
+      <c r="CK108" s="1"/>
+      <c r="CL108" s="1"/>
+      <c r="CM108" s="1"/>
+      <c r="CN108" s="1"/>
+      <c r="CO108" s="1"/>
+      <c r="CP108" s="1"/>
+      <c r="CQ108" s="1"/>
+      <c r="CR108" s="1"/>
+      <c r="CS108" s="1"/>
+      <c r="CT108" s="1"/>
+      <c r="CU108" s="1"/>
+      <c r="CV108" s="1"/>
+      <c r="CW108" s="1"/>
+      <c r="CX108" s="1"/>
+      <c r="CY108" s="1"/>
+      <c r="CZ108" s="1"/>
+      <c r="DA108" s="1"/>
+      <c r="DB108" s="1"/>
+      <c r="DC108" s="1"/>
+      <c r="DD108" s="1"/>
+      <c r="DE108" s="1"/>
+      <c r="DF108" s="1"/>
+      <c r="DG108" s="1"/>
+      <c r="DH108" s="1"/>
+      <c r="DI108" s="1"/>
+      <c r="DJ108" s="1"/>
+      <c r="DK108" s="1"/>
+      <c r="DL108" s="1"/>
+      <c r="DM108" s="1"/>
+      <c r="DN108" s="1"/>
+      <c r="DO108" s="1"/>
+      <c r="DP108" s="1"/>
+      <c r="DQ108" s="1"/>
+      <c r="DR108" s="1"/>
+      <c r="DS108" s="1"/>
+      <c r="DT108" s="1"/>
+      <c r="DU108" s="1"/>
+    </row>
+    <row r="109" spans="1:125" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89" t="s">
+      <c r="B109" s="173"/>
+      <c r="C109" s="173"/>
+      <c r="D109" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="E109" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G109" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1"/>
+      <c r="BA109" s="1"/>
+      <c r="BB109" s="1"/>
+      <c r="BC109" s="1"/>
+      <c r="BD109" s="1"/>
+      <c r="BE109" s="1"/>
+      <c r="BF109" s="1"/>
+      <c r="BG109" s="1"/>
+      <c r="BH109" s="1"/>
+      <c r="BI109" s="1"/>
+      <c r="BJ109" s="1"/>
+      <c r="BK109" s="1"/>
+      <c r="BL109" s="1"/>
+      <c r="BM109" s="1"/>
+      <c r="BN109" s="1"/>
+      <c r="BO109" s="1"/>
+      <c r="BP109" s="1"/>
+      <c r="BQ109" s="1"/>
+      <c r="BR109" s="1"/>
+      <c r="BS109" s="1"/>
+      <c r="BT109" s="1"/>
+      <c r="BU109" s="1"/>
+      <c r="BV109" s="1"/>
+      <c r="BW109" s="1"/>
+      <c r="BX109" s="1"/>
+      <c r="BY109" s="1"/>
+      <c r="BZ109" s="1"/>
+      <c r="CA109" s="1"/>
+      <c r="CB109" s="1"/>
+      <c r="CC109" s="1"/>
+      <c r="CD109" s="1"/>
+      <c r="CE109" s="1"/>
+      <c r="CF109" s="1"/>
+      <c r="CG109" s="1"/>
+      <c r="CH109" s="1"/>
+      <c r="CI109" s="1"/>
+      <c r="CJ109" s="1"/>
+      <c r="CK109" s="1"/>
+      <c r="CL109" s="1"/>
+      <c r="CM109" s="1"/>
+      <c r="CN109" s="1"/>
+      <c r="CO109" s="1"/>
+      <c r="CP109" s="1"/>
+      <c r="CQ109" s="1"/>
+      <c r="CR109" s="1"/>
+      <c r="CS109" s="1"/>
+      <c r="CT109" s="1"/>
+      <c r="CU109" s="1"/>
+      <c r="CV109" s="1"/>
+      <c r="CW109" s="1"/>
+      <c r="CX109" s="1"/>
+      <c r="CY109" s="1"/>
+      <c r="CZ109" s="1"/>
+      <c r="DA109" s="1"/>
+      <c r="DB109" s="1"/>
+      <c r="DC109" s="1"/>
+      <c r="DD109" s="1"/>
+      <c r="DE109" s="1"/>
+      <c r="DF109" s="1"/>
+      <c r="DG109" s="1"/>
+      <c r="DH109" s="1"/>
+      <c r="DI109" s="1"/>
+      <c r="DJ109" s="1"/>
+      <c r="DK109" s="1"/>
+      <c r="DL109" s="1"/>
+      <c r="DM109" s="1"/>
+      <c r="DN109" s="1"/>
+      <c r="DO109" s="1"/>
+      <c r="DP109" s="1"/>
+      <c r="DQ109" s="1"/>
+      <c r="DR109" s="1"/>
+      <c r="DS109" s="1"/>
+      <c r="DT109" s="1"/>
+      <c r="DU109" s="1"/>
+    </row>
+    <row r="110" spans="1:125" s="174" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="E110" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="G110" s="175" t="s">
+        <v>389</v>
+      </c>
+      <c r="H110" s="175"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="1"/>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1"/>
+      <c r="BC110" s="1"/>
+      <c r="BD110" s="1"/>
+      <c r="BE110" s="1"/>
+      <c r="BF110" s="1"/>
+      <c r="BG110" s="1"/>
+      <c r="BH110" s="1"/>
+      <c r="BI110" s="1"/>
+      <c r="BJ110" s="1"/>
+      <c r="BK110" s="1"/>
+      <c r="BL110" s="1"/>
+      <c r="BM110" s="1"/>
+      <c r="BN110" s="1"/>
+      <c r="BO110" s="1"/>
+      <c r="BP110" s="1"/>
+      <c r="BQ110" s="1"/>
+      <c r="BR110" s="1"/>
+      <c r="BS110" s="1"/>
+      <c r="BT110" s="1"/>
+      <c r="BU110" s="1"/>
+      <c r="BV110" s="1"/>
+      <c r="BW110" s="1"/>
+      <c r="BX110" s="1"/>
+      <c r="BY110" s="1"/>
+      <c r="BZ110" s="1"/>
+      <c r="CA110" s="1"/>
+      <c r="CB110" s="1"/>
+      <c r="CC110" s="1"/>
+      <c r="CD110" s="1"/>
+      <c r="CE110" s="1"/>
+      <c r="CF110" s="1"/>
+      <c r="CG110" s="1"/>
+      <c r="CH110" s="1"/>
+      <c r="CI110" s="1"/>
+      <c r="CJ110" s="1"/>
+      <c r="CK110" s="1"/>
+      <c r="CL110" s="1"/>
+      <c r="CM110" s="1"/>
+      <c r="CN110" s="1"/>
+      <c r="CO110" s="1"/>
+      <c r="CP110" s="1"/>
+      <c r="CQ110" s="1"/>
+      <c r="CR110" s="1"/>
+      <c r="CS110" s="1"/>
+      <c r="CT110" s="1"/>
+      <c r="CU110" s="1"/>
+      <c r="CV110" s="1"/>
+      <c r="CW110" s="1"/>
+      <c r="CX110" s="1"/>
+      <c r="CY110" s="1"/>
+      <c r="CZ110" s="1"/>
+      <c r="DA110" s="1"/>
+      <c r="DB110" s="1"/>
+      <c r="DC110" s="1"/>
+      <c r="DD110" s="1"/>
+      <c r="DE110" s="1"/>
+      <c r="DF110" s="1"/>
+      <c r="DG110" s="1"/>
+      <c r="DH110" s="1"/>
+      <c r="DI110" s="1"/>
+      <c r="DJ110" s="1"/>
+      <c r="DK110" s="1"/>
+      <c r="DL110" s="1"/>
+      <c r="DM110" s="1"/>
+      <c r="DN110" s="1"/>
+      <c r="DO110" s="1"/>
+      <c r="DP110" s="1"/>
+      <c r="DQ110" s="1"/>
+      <c r="DR110" s="1"/>
+      <c r="DS110" s="1"/>
+      <c r="DT110" s="1"/>
+      <c r="DU110" s="1"/>
+    </row>
+    <row r="111" spans="1:125" s="165" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="166"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="167"/>
+      <c r="E111" s="168"/>
+      <c r="F111" s="167"/>
+      <c r="G111" s="169"/>
+      <c r="H111" s="167"/>
+      <c r="I111" s="167"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1"/>
+      <c r="BC111" s="1"/>
+      <c r="BD111" s="1"/>
+      <c r="BE111" s="1"/>
+      <c r="BF111" s="1"/>
+      <c r="BG111" s="1"/>
+      <c r="BH111" s="1"/>
+      <c r="BI111" s="1"/>
+      <c r="BJ111" s="1"/>
+      <c r="BK111" s="1"/>
+      <c r="BL111" s="1"/>
+      <c r="BM111" s="1"/>
+      <c r="BN111" s="1"/>
+      <c r="BO111" s="1"/>
+      <c r="BP111" s="1"/>
+      <c r="BQ111" s="1"/>
+      <c r="BR111" s="1"/>
+      <c r="BS111" s="1"/>
+      <c r="BT111" s="1"/>
+      <c r="BU111" s="1"/>
+      <c r="BV111" s="1"/>
+      <c r="BW111" s="1"/>
+      <c r="BX111" s="1"/>
+      <c r="BY111" s="1"/>
+      <c r="BZ111" s="1"/>
+      <c r="CA111" s="1"/>
+      <c r="CB111" s="1"/>
+      <c r="CC111" s="1"/>
+      <c r="CD111" s="1"/>
+      <c r="CE111" s="1"/>
+      <c r="CF111" s="1"/>
+      <c r="CG111" s="1"/>
+      <c r="CH111" s="1"/>
+      <c r="CI111" s="1"/>
+      <c r="CJ111" s="1"/>
+      <c r="CK111" s="1"/>
+      <c r="CL111" s="1"/>
+      <c r="CM111" s="1"/>
+      <c r="CN111" s="1"/>
+      <c r="CO111" s="1"/>
+      <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="1"/>
+      <c r="CS111" s="1"/>
+      <c r="CT111" s="1"/>
+      <c r="CU111" s="1"/>
+      <c r="CV111" s="1"/>
+      <c r="CW111" s="1"/>
+      <c r="CX111" s="1"/>
+      <c r="CY111" s="1"/>
+      <c r="CZ111" s="1"/>
+      <c r="DA111" s="1"/>
+      <c r="DB111" s="1"/>
+      <c r="DC111" s="1"/>
+      <c r="DD111" s="1"/>
+      <c r="DE111" s="1"/>
+      <c r="DF111" s="1"/>
+      <c r="DG111" s="1"/>
+      <c r="DH111" s="1"/>
+      <c r="DI111" s="1"/>
+      <c r="DJ111" s="1"/>
+      <c r="DK111" s="1"/>
+      <c r="DL111" s="1"/>
+      <c r="DM111" s="1"/>
+      <c r="DN111" s="1"/>
+      <c r="DO111" s="1"/>
+      <c r="DP111" s="1"/>
+      <c r="DQ111" s="1"/>
+      <c r="DR111" s="1"/>
+      <c r="DS111" s="1"/>
+      <c r="DT111" s="1"/>
+      <c r="DU111" s="1"/>
+    </row>
+    <row r="112" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="123"/>
+      <c r="C112" s="123" t="s">
         <v>280</v>
       </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="G109" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="H109" s="71"/>
-      <c r="I109" s="69"/>
-    </row>
-    <row r="110" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="91"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="G110" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="H110" s="71"/>
-      <c r="I110" s="69"/>
-    </row>
-    <row r="111" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="G111" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="H111" s="71"/>
-      <c r="I111" s="69"/>
-    </row>
-    <row r="112" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
       <c r="D112" s="69"/>
       <c r="E112" s="70"/>
       <c r="F112" s="69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G112" s="71" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H112" s="71"/>
       <c r="I112" s="69"/>
-    </row>
-    <row r="113" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="1"/>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1"/>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1"/>
+      <c r="BC112" s="1"/>
+      <c r="BD112" s="1"/>
+      <c r="BE112" s="1"/>
+      <c r="BF112" s="1"/>
+      <c r="BG112" s="1"/>
+      <c r="BH112" s="1"/>
+      <c r="BI112" s="1"/>
+      <c r="BJ112" s="1"/>
+      <c r="BK112" s="1"/>
+      <c r="BL112" s="1"/>
+      <c r="BM112" s="1"/>
+      <c r="BN112" s="1"/>
+      <c r="BO112" s="1"/>
+      <c r="BP112" s="1"/>
+      <c r="BQ112" s="1"/>
+      <c r="BR112" s="1"/>
+      <c r="BS112" s="1"/>
+      <c r="BT112" s="1"/>
+      <c r="BU112" s="1"/>
+      <c r="BV112" s="1"/>
+      <c r="BW112" s="1"/>
+      <c r="BX112" s="1"/>
+      <c r="BY112" s="1"/>
+      <c r="BZ112" s="1"/>
+      <c r="CA112" s="1"/>
+      <c r="CB112" s="1"/>
+      <c r="CC112" s="1"/>
+      <c r="CD112" s="1"/>
+      <c r="CE112" s="1"/>
+      <c r="CF112" s="1"/>
+      <c r="CG112" s="1"/>
+      <c r="CH112" s="1"/>
+      <c r="CI112" s="1"/>
+      <c r="CJ112" s="1"/>
+      <c r="CK112" s="1"/>
+      <c r="CL112" s="1"/>
+      <c r="CM112" s="1"/>
+      <c r="CN112" s="1"/>
+      <c r="CO112" s="1"/>
+      <c r="CP112" s="1"/>
+      <c r="CQ112" s="1"/>
+      <c r="CR112" s="1"/>
+      <c r="CS112" s="1"/>
+      <c r="CT112" s="1"/>
+      <c r="CU112" s="1"/>
+      <c r="CV112" s="1"/>
+      <c r="CW112" s="1"/>
+      <c r="CX112" s="1"/>
+      <c r="CY112" s="1"/>
+      <c r="CZ112" s="1"/>
+      <c r="DA112" s="1"/>
+      <c r="DB112" s="1"/>
+      <c r="DC112" s="1"/>
+      <c r="DD112" s="1"/>
+      <c r="DE112" s="1"/>
+      <c r="DF112" s="1"/>
+      <c r="DG112" s="1"/>
+      <c r="DH112" s="1"/>
+      <c r="DI112" s="1"/>
+      <c r="DJ112" s="1"/>
+      <c r="DK112" s="1"/>
+      <c r="DL112" s="1"/>
+      <c r="DM112" s="1"/>
+      <c r="DN112" s="1"/>
+      <c r="DO112" s="1"/>
+      <c r="DP112" s="1"/>
+      <c r="DQ112" s="1"/>
+      <c r="DR112" s="1"/>
+      <c r="DS112" s="1"/>
+      <c r="DT112" s="1"/>
+      <c r="DU112" s="1"/>
+    </row>
+    <row r="113" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="91"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
       <c r="D113" s="69"/>
       <c r="E113" s="70"/>
       <c r="F113" s="69" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G113" s="71" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="H113" s="71"/>
       <c r="I113" s="69"/>
-    </row>
-    <row r="114" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+      <c r="AT113" s="1"/>
+      <c r="AU113" s="1"/>
+      <c r="AV113" s="1"/>
+      <c r="AW113" s="1"/>
+      <c r="AX113" s="1"/>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="1"/>
+      <c r="BA113" s="1"/>
+      <c r="BB113" s="1"/>
+      <c r="BC113" s="1"/>
+      <c r="BD113" s="1"/>
+      <c r="BE113" s="1"/>
+      <c r="BF113" s="1"/>
+      <c r="BG113" s="1"/>
+      <c r="BH113" s="1"/>
+      <c r="BI113" s="1"/>
+      <c r="BJ113" s="1"/>
+      <c r="BK113" s="1"/>
+      <c r="BL113" s="1"/>
+      <c r="BM113" s="1"/>
+      <c r="BN113" s="1"/>
+      <c r="BO113" s="1"/>
+      <c r="BP113" s="1"/>
+      <c r="BQ113" s="1"/>
+      <c r="BR113" s="1"/>
+      <c r="BS113" s="1"/>
+      <c r="BT113" s="1"/>
+      <c r="BU113" s="1"/>
+      <c r="BV113" s="1"/>
+      <c r="BW113" s="1"/>
+      <c r="BX113" s="1"/>
+      <c r="BY113" s="1"/>
+      <c r="BZ113" s="1"/>
+      <c r="CA113" s="1"/>
+      <c r="CB113" s="1"/>
+      <c r="CC113" s="1"/>
+      <c r="CD113" s="1"/>
+      <c r="CE113" s="1"/>
+      <c r="CF113" s="1"/>
+      <c r="CG113" s="1"/>
+      <c r="CH113" s="1"/>
+      <c r="CI113" s="1"/>
+      <c r="CJ113" s="1"/>
+      <c r="CK113" s="1"/>
+      <c r="CL113" s="1"/>
+      <c r="CM113" s="1"/>
+      <c r="CN113" s="1"/>
+      <c r="CO113" s="1"/>
+      <c r="CP113" s="1"/>
+      <c r="CQ113" s="1"/>
+      <c r="CR113" s="1"/>
+      <c r="CS113" s="1"/>
+      <c r="CT113" s="1"/>
+      <c r="CU113" s="1"/>
+      <c r="CV113" s="1"/>
+      <c r="CW113" s="1"/>
+      <c r="CX113" s="1"/>
+      <c r="CY113" s="1"/>
+      <c r="CZ113" s="1"/>
+      <c r="DA113" s="1"/>
+      <c r="DB113" s="1"/>
+      <c r="DC113" s="1"/>
+      <c r="DD113" s="1"/>
+      <c r="DE113" s="1"/>
+      <c r="DF113" s="1"/>
+      <c r="DG113" s="1"/>
+      <c r="DH113" s="1"/>
+      <c r="DI113" s="1"/>
+      <c r="DJ113" s="1"/>
+      <c r="DK113" s="1"/>
+      <c r="DL113" s="1"/>
+      <c r="DM113" s="1"/>
+      <c r="DN113" s="1"/>
+      <c r="DO113" s="1"/>
+      <c r="DP113" s="1"/>
+      <c r="DQ113" s="1"/>
+      <c r="DR113" s="1"/>
+      <c r="DS113" s="1"/>
+      <c r="DT113" s="1"/>
+      <c r="DU113" s="1"/>
+    </row>
+    <row r="114" spans="1:125" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="89" t="s">
-        <v>290</v>
+      <c r="B114" s="123"/>
+      <c r="C114" s="123" t="s">
+        <v>284</v>
       </c>
       <c r="D114" s="69"/>
       <c r="E114" s="70"/>
       <c r="F114" s="69" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G114" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="H114" s="69"/>
+        <v>287</v>
+      </c>
+      <c r="H114" s="71"/>
       <c r="I114" s="69"/>
-    </row>
-    <row r="115" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="1"/>
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+      <c r="AU114" s="1"/>
+      <c r="AV114" s="1"/>
+      <c r="AW114" s="1"/>
+      <c r="AX114" s="1"/>
+      <c r="AY114" s="1"/>
+      <c r="AZ114" s="1"/>
+      <c r="BA114" s="1"/>
+      <c r="BB114" s="1"/>
+      <c r="BC114" s="1"/>
+      <c r="BD114" s="1"/>
+      <c r="BE114" s="1"/>
+      <c r="BF114" s="1"/>
+      <c r="BG114" s="1"/>
+      <c r="BH114" s="1"/>
+      <c r="BI114" s="1"/>
+      <c r="BJ114" s="1"/>
+      <c r="BK114" s="1"/>
+      <c r="BL114" s="1"/>
+      <c r="BM114" s="1"/>
+      <c r="BN114" s="1"/>
+      <c r="BO114" s="1"/>
+      <c r="BP114" s="1"/>
+      <c r="BQ114" s="1"/>
+      <c r="BR114" s="1"/>
+      <c r="BS114" s="1"/>
+      <c r="BT114" s="1"/>
+      <c r="BU114" s="1"/>
+      <c r="BV114" s="1"/>
+      <c r="BW114" s="1"/>
+      <c r="BX114" s="1"/>
+      <c r="BY114" s="1"/>
+      <c r="BZ114" s="1"/>
+      <c r="CA114" s="1"/>
+      <c r="CB114" s="1"/>
+      <c r="CC114" s="1"/>
+      <c r="CD114" s="1"/>
+      <c r="CE114" s="1"/>
+      <c r="CF114" s="1"/>
+      <c r="CG114" s="1"/>
+      <c r="CH114" s="1"/>
+      <c r="CI114" s="1"/>
+      <c r="CJ114" s="1"/>
+      <c r="CK114" s="1"/>
+      <c r="CL114" s="1"/>
+      <c r="CM114" s="1"/>
+      <c r="CN114" s="1"/>
+      <c r="CO114" s="1"/>
+      <c r="CP114" s="1"/>
+      <c r="CQ114" s="1"/>
+      <c r="CR114" s="1"/>
+      <c r="CS114" s="1"/>
+      <c r="CT114" s="1"/>
+      <c r="CU114" s="1"/>
+      <c r="CV114" s="1"/>
+      <c r="CW114" s="1"/>
+      <c r="CX114" s="1"/>
+      <c r="CY114" s="1"/>
+      <c r="CZ114" s="1"/>
+      <c r="DA114" s="1"/>
+      <c r="DB114" s="1"/>
+      <c r="DC114" s="1"/>
+      <c r="DD114" s="1"/>
+      <c r="DE114" s="1"/>
+      <c r="DF114" s="1"/>
+      <c r="DG114" s="1"/>
+      <c r="DH114" s="1"/>
+      <c r="DI114" s="1"/>
+      <c r="DJ114" s="1"/>
+      <c r="DK114" s="1"/>
+      <c r="DL114" s="1"/>
+      <c r="DM114" s="1"/>
+      <c r="DN114" s="1"/>
+      <c r="DO114" s="1"/>
+      <c r="DP114" s="1"/>
+      <c r="DQ114" s="1"/>
+      <c r="DR114" s="1"/>
+      <c r="DS114" s="1"/>
+      <c r="DT114" s="1"/>
+      <c r="DU114" s="1"/>
+    </row>
+    <row r="115" spans="1:125" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="90"/>
-      <c r="C115" s="90"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="124"/>
       <c r="D115" s="69"/>
       <c r="E115" s="70"/>
       <c r="F115" s="69" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G115" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="H115" s="69"/>
+        <v>288</v>
+      </c>
+      <c r="H115" s="71"/>
       <c r="I115" s="69"/>
-    </row>
-    <row r="116" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+      <c r="AV115" s="1"/>
+      <c r="AW115" s="1"/>
+      <c r="AX115" s="1"/>
+      <c r="AY115" s="1"/>
+      <c r="AZ115" s="1"/>
+      <c r="BA115" s="1"/>
+      <c r="BB115" s="1"/>
+      <c r="BC115" s="1"/>
+      <c r="BD115" s="1"/>
+      <c r="BE115" s="1"/>
+      <c r="BF115" s="1"/>
+      <c r="BG115" s="1"/>
+      <c r="BH115" s="1"/>
+      <c r="BI115" s="1"/>
+      <c r="BJ115" s="1"/>
+      <c r="BK115" s="1"/>
+      <c r="BL115" s="1"/>
+      <c r="BM115" s="1"/>
+      <c r="BN115" s="1"/>
+      <c r="BO115" s="1"/>
+      <c r="BP115" s="1"/>
+      <c r="BQ115" s="1"/>
+      <c r="BR115" s="1"/>
+      <c r="BS115" s="1"/>
+      <c r="BT115" s="1"/>
+      <c r="BU115" s="1"/>
+      <c r="BV115" s="1"/>
+      <c r="BW115" s="1"/>
+      <c r="BX115" s="1"/>
+      <c r="BY115" s="1"/>
+      <c r="BZ115" s="1"/>
+      <c r="CA115" s="1"/>
+      <c r="CB115" s="1"/>
+      <c r="CC115" s="1"/>
+      <c r="CD115" s="1"/>
+      <c r="CE115" s="1"/>
+      <c r="CF115" s="1"/>
+      <c r="CG115" s="1"/>
+      <c r="CH115" s="1"/>
+      <c r="CI115" s="1"/>
+      <c r="CJ115" s="1"/>
+      <c r="CK115" s="1"/>
+      <c r="CL115" s="1"/>
+      <c r="CM115" s="1"/>
+      <c r="CN115" s="1"/>
+      <c r="CO115" s="1"/>
+      <c r="CP115" s="1"/>
+      <c r="CQ115" s="1"/>
+      <c r="CR115" s="1"/>
+      <c r="CS115" s="1"/>
+      <c r="CT115" s="1"/>
+      <c r="CU115" s="1"/>
+      <c r="CV115" s="1"/>
+      <c r="CW115" s="1"/>
+      <c r="CX115" s="1"/>
+      <c r="CY115" s="1"/>
+      <c r="CZ115" s="1"/>
+      <c r="DA115" s="1"/>
+      <c r="DB115" s="1"/>
+      <c r="DC115" s="1"/>
+      <c r="DD115" s="1"/>
+      <c r="DE115" s="1"/>
+      <c r="DF115" s="1"/>
+      <c r="DG115" s="1"/>
+      <c r="DH115" s="1"/>
+      <c r="DI115" s="1"/>
+      <c r="DJ115" s="1"/>
+      <c r="DK115" s="1"/>
+      <c r="DL115" s="1"/>
+      <c r="DM115" s="1"/>
+      <c r="DN115" s="1"/>
+      <c r="DO115" s="1"/>
+      <c r="DP115" s="1"/>
+      <c r="DQ115" s="1"/>
+      <c r="DR115" s="1"/>
+      <c r="DS115" s="1"/>
+      <c r="DT115" s="1"/>
+      <c r="DU115" s="1"/>
+    </row>
+    <row r="116" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="90"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="125"/>
+      <c r="C116" s="125"/>
       <c r="D116" s="69"/>
       <c r="E116" s="70"/>
       <c r="F116" s="69" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G116" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="H116" s="69"/>
+        <v>291</v>
+      </c>
+      <c r="H116" s="71"/>
       <c r="I116" s="69"/>
-    </row>
-    <row r="117" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1"/>
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1"/>
+      <c r="AU116" s="1"/>
+      <c r="AV116" s="1"/>
+      <c r="AW116" s="1"/>
+      <c r="AX116" s="1"/>
+      <c r="AY116" s="1"/>
+      <c r="AZ116" s="1"/>
+      <c r="BA116" s="1"/>
+      <c r="BB116" s="1"/>
+      <c r="BC116" s="1"/>
+      <c r="BD116" s="1"/>
+      <c r="BE116" s="1"/>
+      <c r="BF116" s="1"/>
+      <c r="BG116" s="1"/>
+      <c r="BH116" s="1"/>
+      <c r="BI116" s="1"/>
+      <c r="BJ116" s="1"/>
+      <c r="BK116" s="1"/>
+      <c r="BL116" s="1"/>
+      <c r="BM116" s="1"/>
+      <c r="BN116" s="1"/>
+      <c r="BO116" s="1"/>
+      <c r="BP116" s="1"/>
+      <c r="BQ116" s="1"/>
+      <c r="BR116" s="1"/>
+      <c r="BS116" s="1"/>
+      <c r="BT116" s="1"/>
+      <c r="BU116" s="1"/>
+      <c r="BV116" s="1"/>
+      <c r="BW116" s="1"/>
+      <c r="BX116" s="1"/>
+      <c r="BY116" s="1"/>
+      <c r="BZ116" s="1"/>
+      <c r="CA116" s="1"/>
+      <c r="CB116" s="1"/>
+      <c r="CC116" s="1"/>
+      <c r="CD116" s="1"/>
+      <c r="CE116" s="1"/>
+      <c r="CF116" s="1"/>
+      <c r="CG116" s="1"/>
+      <c r="CH116" s="1"/>
+      <c r="CI116" s="1"/>
+      <c r="CJ116" s="1"/>
+      <c r="CK116" s="1"/>
+      <c r="CL116" s="1"/>
+      <c r="CM116" s="1"/>
+      <c r="CN116" s="1"/>
+      <c r="CO116" s="1"/>
+      <c r="CP116" s="1"/>
+      <c r="CQ116" s="1"/>
+      <c r="CR116" s="1"/>
+      <c r="CS116" s="1"/>
+      <c r="CT116" s="1"/>
+      <c r="CU116" s="1"/>
+      <c r="CV116" s="1"/>
+      <c r="CW116" s="1"/>
+      <c r="CX116" s="1"/>
+      <c r="CY116" s="1"/>
+      <c r="CZ116" s="1"/>
+      <c r="DA116" s="1"/>
+      <c r="DB116" s="1"/>
+      <c r="DC116" s="1"/>
+      <c r="DD116" s="1"/>
+      <c r="DE116" s="1"/>
+      <c r="DF116" s="1"/>
+      <c r="DG116" s="1"/>
+      <c r="DH116" s="1"/>
+      <c r="DI116" s="1"/>
+      <c r="DJ116" s="1"/>
+      <c r="DK116" s="1"/>
+      <c r="DL116" s="1"/>
+      <c r="DM116" s="1"/>
+      <c r="DN116" s="1"/>
+      <c r="DO116" s="1"/>
+      <c r="DP116" s="1"/>
+      <c r="DQ116" s="1"/>
+      <c r="DR116" s="1"/>
+      <c r="DS116" s="1"/>
+      <c r="DT116" s="1"/>
+      <c r="DU116" s="1"/>
+    </row>
+    <row r="117" spans="1:125" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
+      <c r="B117" s="123"/>
+      <c r="C117" s="123" t="s">
+        <v>290</v>
+      </c>
       <c r="D117" s="69"/>
       <c r="E117" s="70"/>
       <c r="F117" s="69" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G117" s="71" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H117" s="69"/>
       <c r="I117" s="69"/>
-    </row>
-    <row r="118" spans="1:9" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+      <c r="AT117" s="1"/>
+      <c r="AU117" s="1"/>
+      <c r="AV117" s="1"/>
+      <c r="AW117" s="1"/>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="1"/>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
+      <c r="BG117" s="1"/>
+      <c r="BH117" s="1"/>
+      <c r="BI117" s="1"/>
+      <c r="BJ117" s="1"/>
+      <c r="BK117" s="1"/>
+      <c r="BL117" s="1"/>
+      <c r="BM117" s="1"/>
+      <c r="BN117" s="1"/>
+      <c r="BO117" s="1"/>
+      <c r="BP117" s="1"/>
+      <c r="BQ117" s="1"/>
+      <c r="BR117" s="1"/>
+      <c r="BS117" s="1"/>
+      <c r="BT117" s="1"/>
+      <c r="BU117" s="1"/>
+      <c r="BV117" s="1"/>
+      <c r="BW117" s="1"/>
+      <c r="BX117" s="1"/>
+      <c r="BY117" s="1"/>
+      <c r="BZ117" s="1"/>
+      <c r="CA117" s="1"/>
+      <c r="CB117" s="1"/>
+      <c r="CC117" s="1"/>
+      <c r="CD117" s="1"/>
+      <c r="CE117" s="1"/>
+      <c r="CF117" s="1"/>
+      <c r="CG117" s="1"/>
+      <c r="CH117" s="1"/>
+      <c r="CI117" s="1"/>
+      <c r="CJ117" s="1"/>
+      <c r="CK117" s="1"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="1"/>
+      <c r="CS117" s="1"/>
+      <c r="CT117" s="1"/>
+      <c r="CU117" s="1"/>
+      <c r="CV117" s="1"/>
+      <c r="CW117" s="1"/>
+      <c r="CX117" s="1"/>
+      <c r="CY117" s="1"/>
+      <c r="CZ117" s="1"/>
+      <c r="DA117" s="1"/>
+      <c r="DB117" s="1"/>
+      <c r="DC117" s="1"/>
+      <c r="DD117" s="1"/>
+      <c r="DE117" s="1"/>
+      <c r="DF117" s="1"/>
+      <c r="DG117" s="1"/>
+      <c r="DH117" s="1"/>
+      <c r="DI117" s="1"/>
+      <c r="DJ117" s="1"/>
+      <c r="DK117" s="1"/>
+      <c r="DL117" s="1"/>
+      <c r="DM117" s="1"/>
+      <c r="DN117" s="1"/>
+      <c r="DO117" s="1"/>
+      <c r="DP117" s="1"/>
+      <c r="DQ117" s="1"/>
+      <c r="DR117" s="1"/>
+      <c r="DS117" s="1"/>
+      <c r="DT117" s="1"/>
+      <c r="DU117" s="1"/>
+    </row>
+    <row r="118" spans="1:125" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="70"/>
+      <c r="B118" s="124"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="69"/>
       <c r="E118" s="70"/>
       <c r="F118" s="69" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G118" s="71" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H118" s="69"/>
       <c r="I118" s="69"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="1"/>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="1"/>
+      <c r="BE118" s="1"/>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
+      <c r="BH118" s="1"/>
+      <c r="BI118" s="1"/>
+      <c r="BJ118" s="1"/>
+      <c r="BK118" s="1"/>
+      <c r="BL118" s="1"/>
+      <c r="BM118" s="1"/>
+      <c r="BN118" s="1"/>
+      <c r="BO118" s="1"/>
+      <c r="BP118" s="1"/>
+      <c r="BQ118" s="1"/>
+      <c r="BR118" s="1"/>
+      <c r="BS118" s="1"/>
+      <c r="BT118" s="1"/>
+      <c r="BU118" s="1"/>
+      <c r="BV118" s="1"/>
+      <c r="BW118" s="1"/>
+      <c r="BX118" s="1"/>
+      <c r="BY118" s="1"/>
+      <c r="BZ118" s="1"/>
+      <c r="CA118" s="1"/>
+      <c r="CB118" s="1"/>
+      <c r="CC118" s="1"/>
+      <c r="CD118" s="1"/>
+      <c r="CE118" s="1"/>
+      <c r="CF118" s="1"/>
+      <c r="CG118" s="1"/>
+      <c r="CH118" s="1"/>
+      <c r="CI118" s="1"/>
+      <c r="CJ118" s="1"/>
+      <c r="CK118" s="1"/>
+      <c r="CL118" s="1"/>
+      <c r="CM118" s="1"/>
+      <c r="CN118" s="1"/>
+      <c r="CO118" s="1"/>
+      <c r="CP118" s="1"/>
+      <c r="CQ118" s="1"/>
+      <c r="CR118" s="1"/>
+      <c r="CS118" s="1"/>
+      <c r="CT118" s="1"/>
+      <c r="CU118" s="1"/>
+      <c r="CV118" s="1"/>
+      <c r="CW118" s="1"/>
+      <c r="CX118" s="1"/>
+      <c r="CY118" s="1"/>
+      <c r="CZ118" s="1"/>
+      <c r="DA118" s="1"/>
+      <c r="DB118" s="1"/>
+      <c r="DC118" s="1"/>
+      <c r="DD118" s="1"/>
+      <c r="DE118" s="1"/>
+      <c r="DF118" s="1"/>
+      <c r="DG118" s="1"/>
+      <c r="DH118" s="1"/>
+      <c r="DI118" s="1"/>
+      <c r="DJ118" s="1"/>
+      <c r="DK118" s="1"/>
+      <c r="DL118" s="1"/>
+      <c r="DM118" s="1"/>
+      <c r="DN118" s="1"/>
+      <c r="DO118" s="1"/>
+      <c r="DP118" s="1"/>
+      <c r="DQ118" s="1"/>
+      <c r="DR118" s="1"/>
+      <c r="DS118" s="1"/>
+      <c r="DT118" s="1"/>
+      <c r="DU118" s="1"/>
+    </row>
+    <row r="119" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="124"/>
+      <c r="C119" s="124"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="1"/>
+      <c r="AX119" s="1"/>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="1"/>
+      <c r="BA119" s="1"/>
+      <c r="BB119" s="1"/>
+      <c r="BC119" s="1"/>
+      <c r="BD119" s="1"/>
+      <c r="BE119" s="1"/>
+      <c r="BF119" s="1"/>
+      <c r="BG119" s="1"/>
+      <c r="BH119" s="1"/>
+      <c r="BI119" s="1"/>
+      <c r="BJ119" s="1"/>
+      <c r="BK119" s="1"/>
+      <c r="BL119" s="1"/>
+      <c r="BM119" s="1"/>
+      <c r="BN119" s="1"/>
+      <c r="BO119" s="1"/>
+      <c r="BP119" s="1"/>
+      <c r="BQ119" s="1"/>
+      <c r="BR119" s="1"/>
+      <c r="BS119" s="1"/>
+      <c r="BT119" s="1"/>
+      <c r="BU119" s="1"/>
+      <c r="BV119" s="1"/>
+      <c r="BW119" s="1"/>
+      <c r="BX119" s="1"/>
+      <c r="BY119" s="1"/>
+      <c r="BZ119" s="1"/>
+      <c r="CA119" s="1"/>
+      <c r="CB119" s="1"/>
+      <c r="CC119" s="1"/>
+      <c r="CD119" s="1"/>
+      <c r="CE119" s="1"/>
+      <c r="CF119" s="1"/>
+      <c r="CG119" s="1"/>
+      <c r="CH119" s="1"/>
+      <c r="CI119" s="1"/>
+      <c r="CJ119" s="1"/>
+      <c r="CK119" s="1"/>
+      <c r="CL119" s="1"/>
+      <c r="CM119" s="1"/>
+      <c r="CN119" s="1"/>
+      <c r="CO119" s="1"/>
+      <c r="CP119" s="1"/>
+      <c r="CQ119" s="1"/>
+      <c r="CR119" s="1"/>
+      <c r="CS119" s="1"/>
+      <c r="CT119" s="1"/>
+      <c r="CU119" s="1"/>
+      <c r="CV119" s="1"/>
+      <c r="CW119" s="1"/>
+      <c r="CX119" s="1"/>
+      <c r="CY119" s="1"/>
+      <c r="CZ119" s="1"/>
+      <c r="DA119" s="1"/>
+      <c r="DB119" s="1"/>
+      <c r="DC119" s="1"/>
+      <c r="DD119" s="1"/>
+      <c r="DE119" s="1"/>
+      <c r="DF119" s="1"/>
+      <c r="DG119" s="1"/>
+      <c r="DH119" s="1"/>
+      <c r="DI119" s="1"/>
+      <c r="DJ119" s="1"/>
+      <c r="DK119" s="1"/>
+      <c r="DL119" s="1"/>
+      <c r="DM119" s="1"/>
+      <c r="DN119" s="1"/>
+      <c r="DO119" s="1"/>
+      <c r="DP119" s="1"/>
+      <c r="DQ119" s="1"/>
+      <c r="DR119" s="1"/>
+      <c r="DS119" s="1"/>
+      <c r="DT119" s="1"/>
+      <c r="DU119" s="1"/>
+    </row>
+    <row r="120" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="G120" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
+      <c r="BD120" s="1"/>
+      <c r="BE120" s="1"/>
+      <c r="BF120" s="1"/>
+      <c r="BG120" s="1"/>
+      <c r="BH120" s="1"/>
+      <c r="BI120" s="1"/>
+      <c r="BJ120" s="1"/>
+      <c r="BK120" s="1"/>
+      <c r="BL120" s="1"/>
+      <c r="BM120" s="1"/>
+      <c r="BN120" s="1"/>
+      <c r="BO120" s="1"/>
+      <c r="BP120" s="1"/>
+      <c r="BQ120" s="1"/>
+      <c r="BR120" s="1"/>
+      <c r="BS120" s="1"/>
+      <c r="BT120" s="1"/>
+      <c r="BU120" s="1"/>
+      <c r="BV120" s="1"/>
+      <c r="BW120" s="1"/>
+      <c r="BX120" s="1"/>
+      <c r="BY120" s="1"/>
+      <c r="BZ120" s="1"/>
+      <c r="CA120" s="1"/>
+      <c r="CB120" s="1"/>
+      <c r="CC120" s="1"/>
+      <c r="CD120" s="1"/>
+      <c r="CE120" s="1"/>
+      <c r="CF120" s="1"/>
+      <c r="CG120" s="1"/>
+      <c r="CH120" s="1"/>
+      <c r="CI120" s="1"/>
+      <c r="CJ120" s="1"/>
+      <c r="CK120" s="1"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
+      <c r="CT120" s="1"/>
+      <c r="CU120" s="1"/>
+      <c r="CV120" s="1"/>
+      <c r="CW120" s="1"/>
+      <c r="CX120" s="1"/>
+      <c r="CY120" s="1"/>
+      <c r="CZ120" s="1"/>
+      <c r="DA120" s="1"/>
+      <c r="DB120" s="1"/>
+      <c r="DC120" s="1"/>
+      <c r="DD120" s="1"/>
+      <c r="DE120" s="1"/>
+      <c r="DF120" s="1"/>
+      <c r="DG120" s="1"/>
+      <c r="DH120" s="1"/>
+      <c r="DI120" s="1"/>
+      <c r="DJ120" s="1"/>
+      <c r="DK120" s="1"/>
+      <c r="DL120" s="1"/>
+      <c r="DM120" s="1"/>
+      <c r="DN120" s="1"/>
+      <c r="DO120" s="1"/>
+      <c r="DP120" s="1"/>
+      <c r="DQ120" s="1"/>
+      <c r="DR120" s="1"/>
+      <c r="DS120" s="1"/>
+      <c r="DT120" s="1"/>
+      <c r="DU120" s="1"/>
+    </row>
+    <row r="121" spans="1:125" s="77" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="69" t="s">
+        <v>278</v>
+      </c>
+      <c r="G121" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="H121" s="69"/>
+      <c r="I121" s="69"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="1"/>
+      <c r="AX121" s="1"/>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="1"/>
+      <c r="BA121" s="1"/>
+      <c r="BB121" s="1"/>
+      <c r="BC121" s="1"/>
+      <c r="BD121" s="1"/>
+      <c r="BE121" s="1"/>
+      <c r="BF121" s="1"/>
+      <c r="BG121" s="1"/>
+      <c r="BH121" s="1"/>
+      <c r="BI121" s="1"/>
+      <c r="BJ121" s="1"/>
+      <c r="BK121" s="1"/>
+      <c r="BL121" s="1"/>
+      <c r="BM121" s="1"/>
+      <c r="BN121" s="1"/>
+      <c r="BO121" s="1"/>
+      <c r="BP121" s="1"/>
+      <c r="BQ121" s="1"/>
+      <c r="BR121" s="1"/>
+      <c r="BS121" s="1"/>
+      <c r="BT121" s="1"/>
+      <c r="BU121" s="1"/>
+      <c r="BV121" s="1"/>
+      <c r="BW121" s="1"/>
+      <c r="BX121" s="1"/>
+      <c r="BY121" s="1"/>
+      <c r="BZ121" s="1"/>
+      <c r="CA121" s="1"/>
+      <c r="CB121" s="1"/>
+      <c r="CC121" s="1"/>
+      <c r="CD121" s="1"/>
+      <c r="CE121" s="1"/>
+      <c r="CF121" s="1"/>
+      <c r="CG121" s="1"/>
+      <c r="CH121" s="1"/>
+      <c r="CI121" s="1"/>
+      <c r="CJ121" s="1"/>
+      <c r="CK121" s="1"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="1"/>
+      <c r="CS121" s="1"/>
+      <c r="CT121" s="1"/>
+      <c r="CU121" s="1"/>
+      <c r="CV121" s="1"/>
+      <c r="CW121" s="1"/>
+      <c r="CX121" s="1"/>
+      <c r="CY121" s="1"/>
+      <c r="CZ121" s="1"/>
+      <c r="DA121" s="1"/>
+      <c r="DB121" s="1"/>
+      <c r="DC121" s="1"/>
+      <c r="DD121" s="1"/>
+      <c r="DE121" s="1"/>
+      <c r="DF121" s="1"/>
+      <c r="DG121" s="1"/>
+      <c r="DH121" s="1"/>
+      <c r="DI121" s="1"/>
+      <c r="DJ121" s="1"/>
+      <c r="DK121" s="1"/>
+      <c r="DL121" s="1"/>
+      <c r="DM121" s="1"/>
+      <c r="DN121" s="1"/>
+      <c r="DO121" s="1"/>
+      <c r="DP121" s="1"/>
+      <c r="DQ121" s="1"/>
+      <c r="DR121" s="1"/>
+      <c r="DS121" s="1"/>
+      <c r="DT121" s="1"/>
+      <c r="DU121" s="1"/>
+    </row>
+    <row r="122" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="D122" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="F122" s="82" t="s">
+        <v>340</v>
+      </c>
+      <c r="G122" s="83" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="84">
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B30:B43"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C30:C43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="B112:B113"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="J28:P28"/>
     <mergeCell ref="J57:Q61"/>
@@ -5052,62 +10238,18 @@
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C30:C43"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B30:B43"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5125,7 +10267,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5200,10 +10342,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -5219,10 +10361,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -5230,10 +10372,10 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="163"/>
+      <c r="F7" s="164"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
